--- a/data/sklearn/Aniso.xlsx
+++ b/data/sklearn/Aniso.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,16 +446,16 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Label</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.688540525640726</v>
+        <v>1.730206500242358</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.625100627161766</v>
+        <v>-1.848656749071121</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -463,10 +463,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.006940124249159</v>
+        <v>0.3597884398390101</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.7650194553199388</v>
+        <v>-0.3376097809132198</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.654824119652255</v>
+        <v>-2.981335959920167</v>
       </c>
       <c r="B4" t="n">
-        <v>1.180602684265515</v>
+        <v>3.080586700362797</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -485,10 +485,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.01513602767725</v>
+        <v>2.386855723927645</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.191073321196497</v>
+        <v>-2.842994669002493</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.8210970143305898</v>
+        <v>-3.315642361966768</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1994504920173296</v>
+        <v>0.6560188384094453</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.5910811257743827</v>
+        <v>-2.853175017150662</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9708406844656281</v>
+        <v>2.712063072350339</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.613524587994764</v>
+        <v>1.579380304192248</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.453533930005519</v>
+        <v>-1.547237131874236</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1844441949030451</v>
+        <v>-1.293912576009742</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4053447278625593</v>
+        <v>0.2942903515866485</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.3680412766715315</v>
+        <v>-2.404733618383659</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.4161157782160731</v>
+        <v>0.2753670644442273</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -551,10 +551,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.9683551984039063</v>
+        <v>-3.611718001864081</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6266116359623265</v>
+        <v>2.107298920870402</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.05010517340457344</v>
+        <v>-1.56401309370685</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1829899829676924</v>
+        <v>0.6849377394482</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.176113300302068</v>
+        <v>-4.02943409248709</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7482033409254096</v>
+        <v>2.320919196668517</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.614518499074116</v>
+        <v>1.581378650570564</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.183675373380028</v>
+        <v>-1.073131934399449</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.9493931102158312</v>
+        <v>-3.573593041751314</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4523395422556624</v>
+        <v>1.801126285715435</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.200254011432025</v>
+        <v>-4.077971133333796</v>
       </c>
       <c r="B16" t="n">
-        <v>1.797077559079045</v>
+        <v>4.163650161149516</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.388947303049271</v>
+        <v>1.127847754303319</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.23509600994665</v>
+        <v>-1.163471078573893</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.6598822813213419</v>
+        <v>-2.99150584258104</v>
       </c>
       <c r="B18" t="n">
-        <v>1.340034635569088</v>
+        <v>3.360687200794479</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.723167976290856</v>
+        <v>1.799828060998164</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.402343967414577</v>
+        <v>-1.457303250857499</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.634957486278652</v>
+        <v>1.622473047147009</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.548544360465709</v>
+        <v>-1.714157682620403</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.5040963934924861</v>
+        <v>-2.678284497932819</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8708320489801012</v>
+        <v>2.536361347458023</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -672,10 +672,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.7407647729931236</v>
+        <v>-0.1753807118380614</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.2117799853338702</v>
+        <v>0.6343575765369345</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.1971697436002551</v>
+        <v>-2.061181245979521</v>
       </c>
       <c r="B23" t="n">
-        <v>0.686417550340743</v>
+        <v>2.212369870634242</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.3754933483092144</v>
+        <v>-2.419716669360228</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.8231329272992727</v>
+        <v>-0.4397073369560471</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.3693878741347806</v>
+        <v>-2.407441072017727</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6822628681409374</v>
+        <v>2.2050706526683</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.4005419166334166</v>
+        <v>-2.470079037616836</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7480742221149996</v>
+        <v>2.32069235228058</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.574925477360324</v>
+        <v>-2.820692653116029</v>
       </c>
       <c r="B27" t="n">
-        <v>1.204242624296455</v>
+        <v>3.122118896253904</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.065440238227095</v>
+        <v>0.477408107561245</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.769288000873381</v>
+        <v>-0.3451090414808711</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.00510664115854278</v>
+        <v>-1.654486633856919</v>
       </c>
       <c r="B29" t="n">
-        <v>0.04685535298575333</v>
+        <v>1.088745088577754</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.8588746117857924</v>
+        <v>-3.391597572271164</v>
       </c>
       <c r="B30" t="n">
-        <v>1.40734156159941</v>
+        <v>3.478936419407591</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.718946839048773</v>
+        <v>-0.2192476031382744</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.3628472234031466</v>
+        <v>0.3689527524972011</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-1.187388522363355</v>
+        <v>-4.052103926478238</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7757139817890821</v>
+        <v>2.369251693449155</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.059702177780044</v>
+        <v>0.4658712281047905</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.5641208270889718</v>
+        <v>0.01534209506542489</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.21607521934783</v>
+        <v>0.7802730974217481</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.856313212681846</v>
+        <v>-0.4980006367879514</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.4748138951310017</v>
+        <v>-2.619409437814924</v>
       </c>
       <c r="B35" t="n">
-        <v>1.269301073070658</v>
+        <v>3.236417842669388</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -826,10 +826,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.3422491010075512</v>
+        <v>-2.35287616161742</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7378259866462965</v>
+        <v>2.302687580590496</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-1.110387465982063</v>
+        <v>-3.897286473143967</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5490758948896908</v>
+        <v>1.971079049645005</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.1364788666918846</v>
+        <v>-1.9391568550796</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2297502957634787</v>
+        <v>1.410066910079642</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.2290467223872313</v>
+        <v>-2.125272739105962</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2613680719766804</v>
+        <v>1.465615091403671</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.5810296820981488</v>
+        <v>-2.832965698143637</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8807748217690464</v>
+        <v>2.553829462293795</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.4111047732705445</v>
+        <v>-2.491316597740654</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.2926670135669073</v>
+        <v>0.4922499444013588</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-1.00637033213272</v>
+        <v>-3.688150799914453</v>
       </c>
       <c r="B42" t="n">
-        <v>1.606494169954426</v>
+        <v>3.828820773242657</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -903,10 +903,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-0.9277181313553665</v>
+        <v>-3.530013574326416</v>
       </c>
       <c r="B43" t="n">
-        <v>1.759013047133196</v>
+        <v>4.096775932003197</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9195542657864297</v>
+        <v>0.1840914208573881</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.318713636444403</v>
+        <v>0.4464895303633333</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
@@ -925,10 +925,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-1.115962373862938</v>
+        <v>-3.90849531989558</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4934405205171908</v>
+        <v>1.873335177880124</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.4298755028338297</v>
+        <v>-2.529056814366048</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.4264180324207141</v>
+        <v>0.2572673890987265</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2.181033296871444</v>
+        <v>2.720406897622907</v>
       </c>
       <c r="B47" t="n">
-        <v>-2.365927032443607</v>
+        <v>-3.150189127968852</v>
       </c>
       <c r="C47" t="n">
         <v>2</v>
@@ -958,10 +958,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.8238836604972443</v>
+        <v>-3.321245161241739</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.1009137836368807</v>
+        <v>0.8291345853007385</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.081065591724613</v>
+        <v>0.5088242666325522</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6697544000410518</v>
+        <v>-0.1702418885987139</v>
       </c>
       <c r="C49" t="n">
         <v>2</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.682391905293148</v>
+        <v>1.717844153691973</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.715129071319347</v>
+        <v>-2.006824619786122</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.318554739452008</v>
+        <v>0.9863172618405334</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.056250041456802</v>
+        <v>-0.8492627604506966</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.259157070321091</v>
+        <v>0.8668929798760805</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.136247607675724</v>
+        <v>-0.9898077274289325</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.6853583873245597</v>
+        <v>-3.042727813261047</v>
       </c>
       <c r="B53" t="n">
-        <v>1.381671030389944</v>
+        <v>3.433836747859148</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.04269781044446393</v>
+        <v>-1.578906253921798</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.274801135129582</v>
+        <v>-1.233227644572798</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.5171459610973166</v>
+        <v>-2.704521811011865</v>
       </c>
       <c r="B55" t="n">
-        <v>1.051833884409433</v>
+        <v>2.854357233905361</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.7013327105651488</v>
+        <v>-0.2546623707102147</v>
       </c>
       <c r="B56" t="n">
-        <v>0.02444952508968625</v>
+        <v>1.049381061762798</v>
       </c>
       <c r="C56" t="n">
         <v>2</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.6588579942194028</v>
+        <v>-2.989446422515163</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.05226187623436269</v>
+        <v>0.9146094446308687</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.77187579638529</v>
+        <v>1.897759453356518</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.756860958683</v>
+        <v>-2.080141934408087</v>
       </c>
       <c r="C58" t="n">
         <v>2</v>
@@ -1079,10 +1079,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.216685008163527</v>
+        <v>0.7814991319199047</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.9398673262677615</v>
+        <v>-0.644793979259047</v>
       </c>
       <c r="C59" t="n">
         <v>2</v>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.7609855098700079</v>
+        <v>-3.194782850759594</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.3091003500939778</v>
+        <v>0.463378781831002</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.26755830090896</v>
+        <v>0.8837843991060618</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.109821311101646</v>
+        <v>-0.9433802777588158</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
@@ -1112,10 +1112,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.778708170242006</v>
+        <v>-5.241004524643699</v>
       </c>
       <c r="B62" t="n">
-        <v>1.462514150381675</v>
+        <v>3.575867239118868</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.793234702902583</v>
+        <v>1.940703429301963</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.756183713701756</v>
+        <v>-2.078952106041751</v>
       </c>
       <c r="C63" t="n">
         <v>2</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.750568317747663</v>
+        <v>1.854918877724451</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.605593267784188</v>
+        <v>-1.814384941700738</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.633456351857567</v>
+        <v>-2.938374167590583</v>
       </c>
       <c r="B65" t="n">
-        <v>1.429378647125116</v>
+        <v>3.517652615460745</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -1156,10 +1156,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-1.027700500064716</v>
+        <v>-3.731036994385239</v>
       </c>
       <c r="B66" t="n">
-        <v>1.371777807978942</v>
+        <v>3.416455686374633</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.3105439920697393</v>
+        <v>-2.289130228066433</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.814588834792989</v>
+        <v>-0.4246965153034428</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.439456285494042</v>
+        <v>1.229400543318103</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.435992242415569</v>
+        <v>-1.516418745520764</v>
       </c>
       <c r="C68" t="n">
         <v>2</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1.158457525508012</v>
+        <v>0.664427613651976</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.6645370375953897</v>
+        <v>-0.1610756843340441</v>
       </c>
       <c r="C69" t="n">
         <v>2</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-0.3284413257453775</v>
+        <v>-2.325114404795327</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6383999607263307</v>
+        <v>2.128009422364306</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -1211,10 +1211,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.2844022010723306</v>
+        <v>-2.236569838663789</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6189216598254195</v>
+        <v>2.093788666830081</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.05270138567361214</v>
+        <v>-1.558793178673251</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.001382293379459453</v>
+        <v>1.003998030186581</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1233,10 +1233,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-1.308558980793726</v>
+        <v>-4.295727880163293</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9829183297301742</v>
+        <v>2.73328187106023</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1244,10 +1244,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.171169962777932</v>
+        <v>0.6899870962914739</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.7622699882992109</v>
+        <v>-0.3327793370647347</v>
       </c>
       <c r="C74" t="n">
         <v>2</v>
@@ -1255,10 +1255,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.7264332789535753</v>
+        <v>-3.125312525949877</v>
       </c>
       <c r="B75" t="n">
-        <v>0.114213569314353</v>
+        <v>1.207084417348193</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1266,10 +1266,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.493971868661423</v>
+        <v>1.339008958444432</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.825886515976677</v>
+        <v>-2.201410557055254</v>
       </c>
       <c r="C76" t="n">
         <v>2</v>
@@ -1277,10 +1277,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-0.5439878782312216</v>
+        <v>-2.758489866108448</v>
       </c>
       <c r="B77" t="n">
-        <v>1.28214763597796</v>
+        <v>3.25898752628513</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -1288,10 +1288,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.8230255427536823</v>
+        <v>-0.009988138253309249</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.4334200080438632</v>
+        <v>0.2449658594491267</v>
       </c>
       <c r="C78" t="n">
         <v>2</v>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.127425770493176</v>
+        <v>0.6020355178851303</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.3982011999368775</v>
+        <v>0.3068405695979757</v>
       </c>
       <c r="C79" t="n">
         <v>2</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-0.4230905237435563</v>
+        <v>-2.515415012122701</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8031810002251007</v>
+        <v>2.417507551490094</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.329804365583426</v>
+        <v>1.008935632944491</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.178916003868667</v>
+        <v>-1.064770362136351</v>
       </c>
       <c r="C81" t="n">
         <v>2</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-0.7299985773039459</v>
+        <v>-3.13248087450146</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.0949709445048129</v>
+        <v>0.8395753545522395</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1343,10 +1343,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-1.000237349363963</v>
+        <v>-3.675819894103237</v>
       </c>
       <c r="B83" t="n">
-        <v>1.529228178063166</v>
+        <v>3.693074815057129</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -1354,10 +1354,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.112409376655646</v>
+        <v>0.5718437262208848</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.5674624455727499</v>
+        <v>0.009471320719975182</v>
       </c>
       <c r="C84" t="n">
         <v>2</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.02046758168665246</v>
+        <v>-1.623602100512271</v>
       </c>
       <c r="B85" t="n">
-        <v>0.2617933161487333</v>
+        <v>1.466362188233534</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.435533380578682</v>
+        <v>1.221513195050292</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.147969694761127</v>
+        <v>-1.010401858228181</v>
       </c>
       <c r="C86" t="n">
         <v>2</v>
@@ -1387,10 +1387,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.516236927855355</v>
+        <v>1.383774834715953</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.470607011944291</v>
+        <v>-1.577232241109619</v>
       </c>
       <c r="C87" t="n">
         <v>2</v>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.328892442732605</v>
+        <v>1.007102131171445</v>
       </c>
       <c r="B88" t="n">
-        <v>-1.21255723915132</v>
+        <v>-1.123873488961093</v>
       </c>
       <c r="C88" t="n">
         <v>2</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.884710801619815</v>
+        <v>2.124624239092268</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.798357674603461</v>
+        <v>-2.153046084426678</v>
       </c>
       <c r="C89" t="n">
         <v>2</v>
@@ -1420,10 +1420,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.149085147954378</v>
+        <v>0.64558361731307</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.8718946149089609</v>
+        <v>-0.5253750653485859</v>
       </c>
       <c r="C90" t="n">
         <v>2</v>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-0.1824342357471224</v>
+        <v>-2.031554200499618</v>
       </c>
       <c r="B91" t="n">
-        <v>0.3158964709524221</v>
+        <v>1.561414156245835</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
@@ -1442,10 +1442,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-0.7109550559313378</v>
+        <v>-3.09419218574861</v>
       </c>
       <c r="B92" t="n">
-        <v>0.09797697237180558</v>
+        <v>1.178558899773265</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.1441022865693569</v>
+        <v>-1.954484416889712</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4008613444979448</v>
+        <v>1.710686014268198</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-0.6076822925698979</v>
+        <v>-2.886553135405719</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.1930496068443376</v>
+        <v>0.6672643329637142</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.6616635100112576</v>
+        <v>-2.99508716084521</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.3099454464255378</v>
+        <v>0.4618940612122837</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1486,10 +1486,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.0363180921297938</v>
+        <v>-1.591733243431869</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.357740591319661</v>
+        <v>-1.378941116649281</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-0.1615887767799477</v>
+        <v>-1.989642556393056</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5305085782593536</v>
+        <v>1.938458770978728</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.9456233746692482</v>
+        <v>-3.566013654084531</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1198003852572194</v>
+        <v>1.216899701728906</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -1519,10 +1519,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-1.231478594440436</v>
+        <v>-4.140750926884281</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6032429733822731</v>
+        <v>2.066243322983196</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-1.001632243503763</v>
+        <v>-3.678624452489103</v>
       </c>
       <c r="B100" t="n">
-        <v>0.4200973636011096</v>
+        <v>1.744481113262192</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -1541,10 +1541,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-0.0886596507070976</v>
+        <v>-1.843012080096944</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6881256132987275</v>
+        <v>2.215370707576827</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-1.219260458025403</v>
+        <v>-4.116185279954718</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4050714114153534</v>
+        <v>1.718082535735665</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -1563,10 +1563,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.629997042155604</v>
+        <v>1.612499634279341</v>
       </c>
       <c r="B103" t="n">
-        <v>-1.341560703422884</v>
+        <v>-1.350515229242393</v>
       </c>
       <c r="C103" t="n">
         <v>2</v>
@@ -1574,10 +1574,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.343464314662275</v>
+        <v>1.036400172113814</v>
       </c>
       <c r="B104" t="n">
-        <v>-1.384782701705235</v>
+        <v>-1.426450468380827</v>
       </c>
       <c r="C104" t="n">
         <v>2</v>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1.579820151556672</v>
+        <v>1.511614545374945</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.844639487315024</v>
+        <v>-2.234357006079454</v>
       </c>
       <c r="C105" t="n">
         <v>2</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1.105527116374513</v>
+        <v>0.5580063315151214</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.8277923193890963</v>
+        <v>-0.4478932623329622</v>
       </c>
       <c r="C106" t="n">
         <v>2</v>
@@ -1607,10 +1607,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.7124861851483226</v>
+        <v>-3.097270656840299</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.1099040979200737</v>
+        <v>0.8133398119872915</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.415405898913542</v>
+        <v>1.181045107989264</v>
       </c>
       <c r="B108" t="n">
-        <v>-1.036188818245401</v>
+        <v>-0.8140178887995568</v>
       </c>
       <c r="C108" t="n">
         <v>2</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-0.1744421981834563</v>
+        <v>-2.015485500137486</v>
       </c>
       <c r="B109" t="n">
-        <v>0.3425028351967119</v>
+        <v>1.608157960599725</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
@@ -1640,10 +1640,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.6346059280467328</v>
+        <v>-2.940685492478635</v>
       </c>
       <c r="B110" t="n">
-        <v>1.173526878335421</v>
+        <v>3.068155460791484</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
@@ -1651,10 +1651,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-0.3964168158166347</v>
+        <v>-2.461785156555791</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5568760988706525</v>
+        <v>1.984782959185549</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-0.8930439056718565</v>
+        <v>-3.460297968217367</v>
       </c>
       <c r="B112" t="n">
-        <v>1.469009565986565</v>
+        <v>3.587278810930952</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.884565207734155</v>
+        <v>2.124331509671944</v>
       </c>
       <c r="B113" t="n">
-        <v>-2.032009771262492</v>
+        <v>-2.563541400240072</v>
       </c>
       <c r="C113" t="n">
         <v>2</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.7620258809486928</v>
+        <v>-0.1326333685750416</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.2677575845957418</v>
+        <v>0.5360124616586792</v>
       </c>
       <c r="C114" t="n">
         <v>2</v>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.672981213033447</v>
+        <v>1.698923122238261</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.535501341878954</v>
+        <v>-1.691242852792262</v>
       </c>
       <c r="C115" t="n">
         <v>2</v>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-0.669618557951271</v>
+        <v>-3.011081490288256</v>
       </c>
       <c r="B116" t="n">
-        <v>1.152870294474704</v>
+        <v>3.031864620534635</v>
       </c>
       <c r="C116" t="n">
         <v>1</v>
@@ -1717,10 +1717,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-1.385677178520381</v>
+        <v>-4.450780856562071</v>
       </c>
       <c r="B117" t="n">
-        <v>1.117216054770542</v>
+        <v>2.969224915619833</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1.566161094634205</v>
+        <v>1.484151799965157</v>
       </c>
       <c r="B118" t="n">
-        <v>-1.001693260095062</v>
+        <v>-0.753413831572771</v>
       </c>
       <c r="C118" t="n">
         <v>2</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.1337843197542961</v>
+        <v>-1.395768748189049</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.4143205282748652</v>
+        <v>0.2785210771927433</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-0.4741140247011815</v>
+        <v>-2.618002286241935</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.4397596154482461</v>
+        <v>0.2338280216945921</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -1761,10 +1761,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-0.753906504777112</v>
+        <v>-3.180549883159831</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.01480749354558487</v>
+        <v>0.9804117587135116</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -1772,10 +1772,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-0.9726099049694534</v>
+        <v>-3.620272466778184</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1447663804312777</v>
+        <v>1.260761598198537</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-1.314630435328893</v>
+        <v>-4.307935078003733</v>
       </c>
       <c r="B123" t="n">
-        <v>2.279456851467879</v>
+        <v>5.011125714771273</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
@@ -1794,10 +1794,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-0.9557908505194096</v>
+        <v>-3.586456266068516</v>
       </c>
       <c r="B124" t="n">
-        <v>1.603312606484182</v>
+        <v>3.8232311940342</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -1805,10 +1805,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-0.5445298882641376</v>
+        <v>-2.759579625352298</v>
       </c>
       <c r="B125" t="n">
-        <v>1.132776436308083</v>
+        <v>2.996562413655432</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -1816,10 +1816,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-1.329891428462886</v>
+        <v>-4.338618658247843</v>
       </c>
       <c r="B126" t="n">
-        <v>1.102853721165447</v>
+        <v>2.94399222670609</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-0.5063995640138123</v>
+        <v>-2.682915226541795</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.4981518912094423</v>
+        <v>0.1312406448963681</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-0.8949462202062188</v>
+        <v>-3.464122740311303</v>
       </c>
       <c r="B128" t="n">
-        <v>1.425123020425376</v>
+        <v>3.510176051581915</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.390660667923033</v>
+        <v>1.131292626346044</v>
       </c>
       <c r="B129" t="n">
-        <v>-1.134884126436133</v>
+        <v>-0.9874122742314038</v>
       </c>
       <c r="C129" t="n">
         <v>2</v>
@@ -1860,10 +1860,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.601355449229273</v>
+        <v>1.554913171382856</v>
       </c>
       <c r="B130" t="n">
-        <v>-1.361239810662454</v>
+        <v>-1.385088774512229</v>
       </c>
       <c r="C130" t="n">
         <v>2</v>
@@ -1871,10 +1871,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-1.068200788367868</v>
+        <v>-3.812466416123939</v>
       </c>
       <c r="B131" t="n">
-        <v>1.840443305949846</v>
+        <v>4.239837947228709</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-0.02095806810487697</v>
+        <v>-1.706892043596742</v>
       </c>
       <c r="B132" t="n">
-        <v>-1.005684454851575</v>
+        <v>-0.7604258240841774</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-0.2967303987759895</v>
+        <v>-2.261356773575836</v>
       </c>
       <c r="B133" t="n">
-        <v>0.7608369832159619</v>
+        <v>2.34311480739099</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.236589398388198</v>
+        <v>0.8215186738531475</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.7846908699922108</v>
+        <v>-0.3721698113766931</v>
       </c>
       <c r="C134" t="n">
         <v>2</v>
@@ -1915,10 +1915,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-0.3573620769082148</v>
+        <v>-2.38326214008578</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3301941507766974</v>
+        <v>1.586533257160343</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -1926,10 +1926,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.197791610694888</v>
+        <v>0.7435122805909734</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.9845380496538291</v>
+        <v>-0.723274433601967</v>
       </c>
       <c r="C136" t="n">
         <v>2</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-0.8342782313138846</v>
+        <v>-3.342144367797637</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.06506539484026103</v>
+        <v>0.8921153840647412</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-0.6151991233013491</v>
+        <v>-2.901666390284009</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.359258326576969</v>
+        <v>0.3752579616399779</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -1959,10 +1959,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.7389326293967582</v>
+        <v>-0.1790643990374609</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.23305239224852</v>
+        <v>0.5969848179809385</v>
       </c>
       <c r="C139" t="n">
         <v>2</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-1.646256325462225</v>
+        <v>-4.974698343119496</v>
       </c>
       <c r="B140" t="n">
-        <v>1.329093165923678</v>
+        <v>3.341464509871617</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -1981,10 +1981,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.9753243676854101</v>
+        <v>0.2962221571610353</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.7401570774268376</v>
+        <v>-0.2939299260733376</v>
       </c>
       <c r="C141" t="n">
         <v>2</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-0.6777103013489417</v>
+        <v>-3.027350658072896</v>
       </c>
       <c r="B142" t="n">
-        <v>1.487501791673523</v>
+        <v>3.619767164906813</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
@@ -2003,10 +2003,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1.366118406428589</v>
+        <v>1.081948232876699</v>
       </c>
       <c r="B143" t="n">
-        <v>-1.319097808094947</v>
+        <v>-1.311050942623212</v>
       </c>
       <c r="C143" t="n">
         <v>2</v>
@@ -2014,10 +2014,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-1.048110241503581</v>
+        <v>-3.772072589755898</v>
       </c>
       <c r="B144" t="n">
-        <v>0.4584536980669182</v>
+        <v>1.811868035336181</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-0.5222762881163724</v>
+        <v>-2.714836788509436</v>
       </c>
       <c r="B145" t="n">
-        <v>1.114757708166168</v>
+        <v>2.964905931197391</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
@@ -2036,10 +2036,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-0.5532548722890286</v>
+        <v>-2.777121979582181</v>
       </c>
       <c r="B146" t="n">
-        <v>0.9157400080056023</v>
+        <v>2.61525859291955</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -2047,10 +2047,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-0.07771524504200723</v>
+        <v>-1.821007381811556</v>
       </c>
       <c r="B147" t="n">
-        <v>0.2789473022370675</v>
+        <v>1.496499435180927</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
@@ -2058,10 +2058,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1.335179692539699</v>
+        <v>1.019743204545694</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.103758471780721</v>
+        <v>-0.9327286843113121</v>
       </c>
       <c r="C148" t="n">
         <v>2</v>
@@ -2069,10 +2069,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-0.4265758496298981</v>
+        <v>-2.522422568942331</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.9040612672306225</v>
+        <v>-0.581887548190583</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-1.526015405672484</v>
+        <v>-4.732943309315298</v>
       </c>
       <c r="B150" t="n">
-        <v>1.038664779042151</v>
+        <v>2.831220886558087</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-0.753241342952105</v>
+        <v>-3.179212516315241</v>
       </c>
       <c r="B151" t="n">
-        <v>1.615787806341073</v>
+        <v>3.845148442705683</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -2102,10 +2102,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1.136807801175857</v>
+        <v>0.6208989226961527</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.7873803287377438</v>
+        <v>-0.3768948287546702</v>
       </c>
       <c r="C152" t="n">
         <v>2</v>
@@ -2113,10 +2113,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-0.4856495315651578</v>
+        <v>-2.641195445914414</v>
       </c>
       <c r="B153" t="n">
-        <v>0.8557698051350681</v>
+        <v>2.509899010366102</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-0.8433885224164955</v>
+        <v>-3.360461416081442</v>
       </c>
       <c r="B154" t="n">
-        <v>0.2003165031707477</v>
+        <v>1.358355694307541</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-0.1761563623615794</v>
+        <v>-2.018931979252522</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.9181921314051801</v>
+        <v>-0.6067135764393948</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1.280076173642613</v>
+        <v>0.9089526924888205</v>
       </c>
       <c r="B156" t="n">
-        <v>-1.235926727344347</v>
+        <v>-1.164930537339277</v>
       </c>
       <c r="C156" t="n">
         <v>2</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-1.218542605224286</v>
+        <v>-4.114741973229322</v>
       </c>
       <c r="B157" t="n">
-        <v>0.7477956230835341</v>
+        <v>2.320202891244099</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-0.7760746967712489</v>
+        <v>-3.22512099933469</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.2229985755622316</v>
+        <v>0.6146480220128311</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-0.6836042114585842</v>
+        <v>-3.039200887098814</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.3483830726150402</v>
+        <v>0.3943643205106517</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -2190,10 +2190,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.9156819570650888</v>
+        <v>0.1763058007251981</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.7833864122986969</v>
+        <v>-0.3698780546130222</v>
       </c>
       <c r="C160" t="n">
         <v>2</v>
@@ -2201,10 +2201,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.432210438550358</v>
+        <v>1.214832125379572</v>
       </c>
       <c r="B161" t="n">
-        <v>-1.407739138540919</v>
+        <v>-1.466781841065087</v>
       </c>
       <c r="C161" t="n">
         <v>2</v>
@@ -2212,10 +2212,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-0.5075021369165746</v>
+        <v>-2.685132047153655</v>
       </c>
       <c r="B162" t="n">
-        <v>1.149650692513627</v>
+        <v>3.026208212812625</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-0.6876912497187441</v>
+        <v>-3.047418240013876</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.1101439566094632</v>
+        <v>0.8129184125226198</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -2234,10 +2234,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-0.6182089742365815</v>
+        <v>-2.90771796254298</v>
       </c>
       <c r="B164" t="n">
-        <v>1.052562931577818</v>
+        <v>2.855638071748926</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-0.8888655995974801</v>
+        <v>-3.451897113266977</v>
       </c>
       <c r="B165" t="n">
-        <v>0.4403589465005119</v>
+        <v>1.780077989943795</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1.927481020233284</v>
+        <v>2.210617557047527</v>
       </c>
       <c r="B166" t="n">
-        <v>-1.972343945631676</v>
+        <v>-2.458716567568742</v>
       </c>
       <c r="C166" t="n">
         <v>2</v>
@@ -2267,10 +2267,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1.339893446052959</v>
+        <v>1.029220624062574</v>
       </c>
       <c r="B167" t="n">
-        <v>-1.188422001107922</v>
+        <v>-1.081471121062318</v>
       </c>
       <c r="C167" t="n">
         <v>2</v>
@@ -2278,10 +2278,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-0.666417382391671</v>
+        <v>-3.004645242902777</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.2943121846382461</v>
+        <v>0.4893596000468556</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-0.01423282021392574</v>
+        <v>-1.693370336227391</v>
       </c>
       <c r="B169" t="n">
-        <v>0.120298177978851</v>
+        <v>1.217774256605141</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
@@ -2300,10 +2300,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1.661585438192054</v>
+        <v>1.676010906190485</v>
       </c>
       <c r="B170" t="n">
-        <v>-2.174426658477017</v>
+        <v>-2.813748720996968</v>
       </c>
       <c r="C170" t="n">
         <v>2</v>
@@ -2311,10 +2311,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-1.265534486203932</v>
+        <v>-4.20922331780505</v>
       </c>
       <c r="B171" t="n">
-        <v>0.9705353208735537</v>
+        <v>2.711526589579763</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -2322,10 +2322,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-0.7220340788899895</v>
+        <v>-3.116467544042358</v>
       </c>
       <c r="B172" t="n">
-        <v>0.9792902912396241</v>
+        <v>2.726907895276333</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
@@ -2333,10 +2333,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1.499087273864772</v>
+        <v>1.34929393430806</v>
       </c>
       <c r="B173" t="n">
-        <v>-1.185587372168881</v>
+        <v>-1.07649105917465</v>
       </c>
       <c r="C173" t="n">
         <v>2</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-0.849293534922488</v>
+        <v>-3.372333967459931</v>
       </c>
       <c r="B174" t="n">
-        <v>1.539666137693828</v>
+        <v>3.711412906588526</v>
       </c>
       <c r="C174" t="n">
         <v>1</v>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.9375838779003732</v>
+        <v>0.2203415551187101</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.5251338415629248</v>
+        <v>0.08383698625179234</v>
       </c>
       <c r="C175" t="n">
         <v>2</v>
@@ -2366,10 +2366,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1.052574281172447</v>
+        <v>0.4515399597783696</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.8521540122554396</v>
+        <v>-0.4906934809054154</v>
       </c>
       <c r="C176" t="n">
         <v>2</v>
@@ -2377,10 +2377,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-0.5364028045761525</v>
+        <v>-2.743239402779533</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.4001152034340411</v>
+        <v>0.3034779228198359</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-0.07399237031770824</v>
+        <v>-1.813522211984217</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.8535868752118211</v>
+        <v>-0.4932108284499379</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-0.9012256996201798</v>
+        <v>-3.476748190620977</v>
       </c>
       <c r="B179" t="n">
-        <v>0.2883838168463956</v>
+        <v>1.51307812246909</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1.290857000317247</v>
+        <v>0.9306285007055315</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.8292385082176839</v>
+        <v>-0.4504340216430879</v>
       </c>
       <c r="C180" t="n">
         <v>2</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-0.6337640084531847</v>
+        <v>-2.938992738463158</v>
       </c>
       <c r="B181" t="n">
-        <v>1.198498412336249</v>
+        <v>3.112027088234973</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
@@ -2432,10 +2432,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-0.4131041506863763</v>
+        <v>-2.495336523366614</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.2962106964403406</v>
+        <v>0.4860241700938621</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -2443,10 +2443,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-1.438481048881926</v>
+        <v>-4.556947721274767</v>
       </c>
       <c r="B183" t="n">
-        <v>0.9531804447658747</v>
+        <v>2.681036405881047</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -2454,10 +2454,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1.161666738886115</v>
+        <v>0.6708800217844566</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.5900224319603892</v>
+        <v>-0.03016354183575933</v>
       </c>
       <c r="C184" t="n">
         <v>2</v>
@@ -2465,10 +2465,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-0.8648172883261325</v>
+        <v>-3.403545850531256</v>
       </c>
       <c r="B185" t="n">
-        <v>1.595918769303772</v>
+        <v>3.810241216320135</v>
       </c>
       <c r="C185" t="n">
         <v>1</v>
@@ -2476,10 +2476,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-0.2455529478401888</v>
+        <v>-2.158459969371143</v>
       </c>
       <c r="B186" t="n">
-        <v>0.5390786928424586</v>
+        <v>1.95351530992125</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -2487,10 +2487,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-0.8346629067512952</v>
+        <v>-3.342917791882695</v>
       </c>
       <c r="B187" t="n">
-        <v>1.463492935924825</v>
+        <v>3.577586833705837</v>
       </c>
       <c r="C187" t="n">
         <v>1</v>
@@ -2498,10 +2498,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.1078865572670824</v>
+        <v>-1.447838496628245</v>
       </c>
       <c r="B188" t="n">
-        <v>0.2119133852840121</v>
+        <v>1.378729856806421</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -2509,10 +2509,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-0.6463143358859935</v>
+        <v>-2.964226284897085</v>
       </c>
       <c r="B189" t="n">
-        <v>0.9425091815891478</v>
+        <v>2.662288431390363</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1.258937361924821</v>
+        <v>0.86645123665871</v>
       </c>
       <c r="B190" t="n">
-        <v>-1.346393174398103</v>
+        <v>-1.359005230947905</v>
       </c>
       <c r="C190" t="n">
         <v>2</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-1.210768109806424</v>
+        <v>-4.099110660645864</v>
       </c>
       <c r="B191" t="n">
-        <v>0.5152369424765429</v>
+        <v>1.911628560408008</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -2542,10 +2542,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-0.506902778820323</v>
+        <v>-2.683926984542079</v>
       </c>
       <c r="B192" t="n">
-        <v>0.6836258422391804</v>
+        <v>2.207465214886675</v>
       </c>
       <c r="C192" t="n">
         <v>1</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-0.5611151568038136</v>
+        <v>-2.792925778753922</v>
       </c>
       <c r="B193" t="n">
-        <v>0.1092145406107401</v>
+        <v>1.198301796110069</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -2564,10 +2564,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-0.8746502719288843</v>
+        <v>-3.423315936184595</v>
       </c>
       <c r="B194" t="n">
-        <v>0.2115984470711752</v>
+        <v>1.378176552714616</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -2575,10 +2575,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-0.8506773672243649</v>
+        <v>-3.375116285039542</v>
       </c>
       <c r="B195" t="n">
-        <v>1.663359923885531</v>
+        <v>3.928726256449087</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
@@ -2586,10 +2586,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-1.564865647205483</v>
+        <v>-4.811055165674475</v>
       </c>
       <c r="B196" t="n">
-        <v>1.156247320047203</v>
+        <v>3.037797600373954</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -2597,10 +2597,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>-0.4133477793214974</v>
+        <v>-2.495826360345758</v>
       </c>
       <c r="B197" t="n">
-        <v>0.7310176793470524</v>
+        <v>2.290726300144396</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
@@ -2608,10 +2608,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-0.9149958825349204</v>
+        <v>-3.504434364694365</v>
       </c>
       <c r="B198" t="n">
-        <v>0.225749626588523</v>
+        <v>1.403038272289009</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -2619,10 +2619,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>-1.413848167041072</v>
+        <v>-4.507421127561548</v>
       </c>
       <c r="B199" t="n">
-        <v>0.8902908866651297</v>
+        <v>2.570547908739062</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -2630,10 +2630,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-0.4203025671676768</v>
+        <v>-2.509809578153757</v>
       </c>
       <c r="B200" t="n">
-        <v>0.7601672750026379</v>
+        <v>2.341938220112459</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
@@ -2641,10 +2641,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-0.1173915334446113</v>
+        <v>-1.900780078666915</v>
       </c>
       <c r="B201" t="n">
-        <v>0.4947725430802771</v>
+        <v>1.875675362413125</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -2652,10 +2652,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>-0.4084352213301687</v>
+        <v>-2.485949226793092</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.5987764790826051</v>
+        <v>-0.04554322551702043</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -2663,10 +2663,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>-1.35959647352565</v>
+        <v>-4.398343285985733</v>
       </c>
       <c r="B203" t="n">
-        <v>0.7637001512783638</v>
+        <v>2.348145008680892</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -2674,10 +2674,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>-1.657317196870756</v>
+        <v>-4.996937206111803</v>
       </c>
       <c r="B204" t="n">
-        <v>1.28494723698571</v>
+        <v>3.26390604880755</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>-0.4385802860675493</v>
+        <v>-2.546558553113605</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.4381888782413703</v>
+        <v>0.2365875957579795</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -2696,10 +2696,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.5378583317979007</v>
+        <v>-0.5833421083078959</v>
       </c>
       <c r="B206" t="n">
-        <v>0.1110465318667498</v>
+        <v>1.201520358408273</v>
       </c>
       <c r="C206" t="n">
         <v>2</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>-0.3240312439615504</v>
+        <v>-2.316247544224128</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.6813653167021596</v>
+        <v>-0.1906407079110001</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -2718,10 +2718,10 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>-1.002708808095068</v>
+        <v>-3.680788981084016</v>
       </c>
       <c r="B208" t="n">
-        <v>0.3225279662120186</v>
+        <v>1.573064801713295</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -2729,10 +2729,10 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.8389181275088978</v>
+        <v>0.02196531296322887</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.4018474742007122</v>
+        <v>0.3004345560124897</v>
       </c>
       <c r="C209" t="n">
         <v>2</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>-0.4034979120873916</v>
+        <v>-2.476022328654117</v>
       </c>
       <c r="B210" t="n">
-        <v>0.9424377604308933</v>
+        <v>2.662162954018952</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
@@ -2751,10 +2751,10 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>-0.5719231705943405</v>
+        <v>-2.814656249078451</v>
       </c>
       <c r="B211" t="n">
-        <v>1.200220073179663</v>
+        <v>3.115051814833818</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -2762,10 +2762,10 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>-0.7226155151285697</v>
+        <v>-3.117636573169537</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.2593989337343011</v>
+        <v>0.5506974872766951</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>-0.4766075613694697</v>
+        <v>-2.623015762873586</v>
       </c>
       <c r="B213" t="n">
-        <v>0.6736965521318314</v>
+        <v>2.190020787309519</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
@@ -2784,10 +2784,10 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>-0.617347486518986</v>
+        <v>-2.905985865078544</v>
       </c>
       <c r="B214" t="n">
-        <v>0.9961256301893916</v>
+        <v>2.756485322048134</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -2795,10 +2795,10 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1.759308022184424</v>
+        <v>1.872490828648001</v>
       </c>
       <c r="B215" t="n">
-        <v>-1.667039552400887</v>
+        <v>-1.922337801400946</v>
       </c>
       <c r="C215" t="n">
         <v>2</v>
@@ -2806,10 +2806,10 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1.332201982774162</v>
+        <v>1.013756254959104</v>
       </c>
       <c r="B216" t="n">
-        <v>-1.182235457517546</v>
+        <v>-1.070602195847276</v>
       </c>
       <c r="C216" t="n">
         <v>2</v>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-0.8725761607408543</v>
+        <v>-3.419145751681244</v>
       </c>
       <c r="B217" t="n">
-        <v>0.4458085561457901</v>
+        <v>1.789652221309083</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>-0.5840499920838244</v>
+        <v>-2.839038299251172</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.3501210130090479</v>
+        <v>0.3913109929304412</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-0.1957033581323559</v>
+        <v>-2.058232947937708</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.8374519536698379</v>
+        <v>-0.4648639408820247</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -2850,10 +2850,10 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>-0.7858100111519049</v>
+        <v>-3.244694712354397</v>
       </c>
       <c r="B220" t="n">
-        <v>0.392914095433507</v>
+        <v>1.696723766288396</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>-0.293348712690738</v>
+        <v>-2.254557593768456</v>
       </c>
       <c r="B221" t="n">
-        <v>0.9693760893757047</v>
+        <v>2.709489975714043</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
@@ -2872,10 +2872,10 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>-0.8000507249461027</v>
+        <v>-3.273326930493882</v>
       </c>
       <c r="B222" t="n">
-        <v>1.560296727535692</v>
+        <v>3.747658078849535</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
@@ -2883,10 +2883,10 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-0.6607036530831727</v>
+        <v>-2.993157283358393</v>
       </c>
       <c r="B223" t="n">
-        <v>1.229960549616125</v>
+        <v>3.167301832881129</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
@@ -2894,10 +2894,10 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>-0.4550889187789396</v>
+        <v>-2.579750623385374</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.1963651872370103</v>
+        <v>0.6614393040431261</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -2905,10 +2905,10 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.9565362953879837</v>
+        <v>0.2584470714304656</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.5906445853868452</v>
+        <v>-0.03125658174821547</v>
       </c>
       <c r="C225" t="n">
         <v>2</v>
@@ -2916,10 +2916,10 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>-0.217618688142826</v>
+        <v>-2.102295662667235</v>
       </c>
       <c r="B226" t="n">
-        <v>0.7657399327233813</v>
+        <v>2.351728630400686</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
@@ -2927,10 +2927,10 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>-0.7627195098367298</v>
+        <v>-3.19826921148691</v>
       </c>
       <c r="B227" t="n">
-        <v>1.491790623525043</v>
+        <v>3.62730206577239</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
@@ -2938,10 +2938,10 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>-1.150843834745502</v>
+        <v>-3.978627590752706</v>
       </c>
       <c r="B228" t="n">
-        <v>0.5155458828147929</v>
+        <v>1.912171327040667</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.2616958100123179</v>
+        <v>-1.138591352129979</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.08499334089758084</v>
+        <v>0.8571046624522176</v>
       </c>
       <c r="C229" t="n">
         <v>1</v>
@@ -2960,10 +2960,10 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1.613015991404275</v>
+        <v>1.578357725637949</v>
       </c>
       <c r="B230" t="n">
-        <v>-1.698558041896297</v>
+        <v>-1.977711549312397</v>
       </c>
       <c r="C230" t="n">
         <v>2</v>
@@ -2971,10 +2971,10 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>-0.5993438017777952</v>
+        <v>-2.869787860099727</v>
       </c>
       <c r="B231" t="n">
-        <v>1.020768934038526</v>
+        <v>2.799780293250545</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -2982,10 +2982,10 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1.021876992830827</v>
+        <v>0.3898203389229856</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.5596785098943363</v>
+        <v>0.02314664904045838</v>
       </c>
       <c r="C232" t="n">
         <v>2</v>
@@ -2993,10 +2993,10 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>-1.062104404785135</v>
+        <v>-3.800209096222327</v>
       </c>
       <c r="B233" t="n">
-        <v>0.5357428525917662</v>
+        <v>1.947654687154362</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>-0.878959208479165</v>
+        <v>-3.431979435292842</v>
       </c>
       <c r="B234" t="n">
-        <v>0.3882292300680432</v>
+        <v>1.688493087791444</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>-0.8763415756346679</v>
+        <v>-3.426716452292421</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.04619515943724779</v>
+        <v>0.925267850282654</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>-0.5069951239068472</v>
+        <v>-2.684112652528929</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.5229915972170084</v>
+        <v>0.08760062151079751</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1.679286655217664</v>
+        <v>1.711600773000259</v>
       </c>
       <c r="B237" t="n">
-        <v>-1.571085736935742</v>
+        <v>-1.753759850053285</v>
       </c>
       <c r="C237" t="n">
         <v>2</v>
@@ -3048,10 +3048,10 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.7800177605303033</v>
+        <v>-0.0964590989165993</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.4751505672139113</v>
+        <v>0.1716508782847307</v>
       </c>
       <c r="C238" t="n">
         <v>2</v>
@@ -3059,10 +3059,10 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>-0.6018108694201448</v>
+        <v>-2.874748118407102</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.2596553844509214</v>
+        <v>0.5502469378512249</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>-0.9355900317592788</v>
+        <v>-3.545840728273498</v>
       </c>
       <c r="B240" t="n">
-        <v>0.1607384982098731</v>
+        <v>1.288822461445577</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -3081,10 +3081,10 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>-0.2202021000563472</v>
+        <v>-2.10748984145076</v>
       </c>
       <c r="B241" t="n">
-        <v>0.8003701997326441</v>
+        <v>2.412569352978983</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
@@ -3092,10 +3092,10 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>-0.100124415959352</v>
+        <v>-1.866063007484747</v>
       </c>
       <c r="B242" t="n">
-        <v>0.1088428664473814</v>
+        <v>1.197648814582194</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
@@ -3103,10 +3103,10 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.7936336611214043</v>
+        <v>-0.0690831231387006</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.0285172635282369</v>
+        <v>0.9563255363374702</v>
       </c>
       <c r="C243" t="n">
         <v>2</v>
@@ -3114,10 +3114,10 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>-0.2478733489920872</v>
+        <v>-2.163125341691128</v>
       </c>
       <c r="B244" t="n">
-        <v>0.5251757779118909</v>
+        <v>1.929089757842945</v>
       </c>
       <c r="C244" t="n">
         <v>1</v>
@@ -3125,10 +3125,10 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>-0.39393999060883</v>
+        <v>-2.456805279797638</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.4886598779822516</v>
+        <v>0.1479168357934977</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -3136,10 +3136,10 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1.53071878110121</v>
+        <v>1.412891885110454</v>
       </c>
       <c r="B246" t="n">
-        <v>-1.107576285059994</v>
+        <v>-0.9394360688809377</v>
       </c>
       <c r="C246" t="n">
         <v>2</v>
@@ -3147,10 +3147,10 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>-0.6001261296664612</v>
+        <v>-2.871360799707151</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.2193698332368764</v>
+        <v>0.62102323433984</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.942158040053713</v>
+        <v>0.2295383138256478</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.3956963162519511</v>
+        <v>0.3112413134133425</v>
       </c>
       <c r="C248" t="n">
         <v>2</v>
@@ -3169,10 +3169,10 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1.396904190935687</v>
+        <v>1.143845783121798</v>
       </c>
       <c r="B249" t="n">
-        <v>-1.004652867921336</v>
+        <v>-0.7586134645600283</v>
       </c>
       <c r="C249" t="n">
         <v>2</v>
@@ -3180,10 +3180,10 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1.542134024311278</v>
+        <v>1.435843244040166</v>
       </c>
       <c r="B250" t="n">
-        <v>-1.158352276149897</v>
+        <v>-1.028642657635005</v>
       </c>
       <c r="C250" t="n">
         <v>2</v>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>-0.8030269637660044</v>
+        <v>-3.27931092261381</v>
       </c>
       <c r="B251" t="n">
-        <v>1.611399120327177</v>
+        <v>3.837438111503696</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>
@@ -3202,10 +3202,10 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>-0.8166769872171366</v>
+        <v>-3.306755505428271</v>
       </c>
       <c r="B252" t="n">
-        <v>1.44024295550718</v>
+        <v>3.536739744419394</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -3213,10 +3213,10 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>-0.2912522262393493</v>
+        <v>-2.250342421813586</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.7877687394322843</v>
+        <v>-0.3775772141173548</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -3224,10 +3224,10 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>-1.119650160689037</v>
+        <v>-3.915909942391527</v>
       </c>
       <c r="B254" t="n">
-        <v>2.023513062068055</v>
+        <v>4.561466892263562</v>
       </c>
       <c r="C254" t="n">
         <v>1</v>
@@ -3235,10 +3235,10 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1.374555655502505</v>
+        <v>1.09891207046748</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.992579825994705</v>
+        <v>-0.7374027532958658</v>
       </c>
       <c r="C255" t="n">
         <v>2</v>
@@ -3246,10 +3246,10 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>-1.142416900740561</v>
+        <v>-3.961684492522979</v>
       </c>
       <c r="B256" t="n">
-        <v>0.5116303135476613</v>
+        <v>1.905292198345126</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -3257,10 +3257,10 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>-1.080972660495328</v>
+        <v>-3.838145397815998</v>
       </c>
       <c r="B257" t="n">
-        <v>0.7136953720058968</v>
+        <v>2.260293335389104</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.1481906494564857</v>
+        <v>-1.366803544577521</v>
       </c>
       <c r="B258" t="n">
-        <v>0.246196582120316</v>
+        <v>1.438960823759601</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -3279,10 +3279,10 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.8197413673398878</v>
+        <v>-0.0165912642071791</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.03910789392597624</v>
+        <v>0.937719222797185</v>
       </c>
       <c r="C259" t="n">
         <v>2</v>
@@ -3290,10 +3290,10 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>-0.2895802630812188</v>
+        <v>-2.246980791592193</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.7128577810595754</v>
+        <v>-0.2459687331544655</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -3301,10 +3301,10 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>-0.1999411571713143</v>
+        <v>-2.066753418770019</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.3239740094676016</v>
+        <v>0.4372477622973473</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -3312,10 +3312,10 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>-0.5273873223061781</v>
+        <v>-2.725112976062654</v>
       </c>
       <c r="B262" t="n">
-        <v>1.095786589672389</v>
+        <v>2.931576226954241</v>
       </c>
       <c r="C262" t="n">
         <v>1</v>
@@ -3323,10 +3323,10 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1.150223396374211</v>
+        <v>0.6478721667161813</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.8059168443330741</v>
+        <v>-0.4094609941440999</v>
       </c>
       <c r="C263" t="n">
         <v>2</v>
@@ -3334,10 +3334,10 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>-0.646110095887368</v>
+        <v>-2.963815642265124</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.1336782398166762</v>
+        <v>0.7715718414636634</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -3345,10 +3345,10 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1.589573320262647</v>
+        <v>1.531224156099264</v>
       </c>
       <c r="B265" t="n">
-        <v>-1.367200919795613</v>
+        <v>-1.395561641698974</v>
       </c>
       <c r="C265" t="n">
         <v>2</v>
@@ -3356,10 +3356,10 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>-0.862618470203501</v>
+        <v>-3.399124931675217</v>
       </c>
       <c r="B266" t="n">
-        <v>1.840555896063401</v>
+        <v>4.240035752918803</v>
       </c>
       <c r="C266" t="n">
         <v>1</v>
@@ -3367,10 +3367,10 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1.480083692789882</v>
+        <v>1.311085549066209</v>
       </c>
       <c r="B267" t="n">
-        <v>-1.199113490065609</v>
+        <v>-1.100254629530491</v>
       </c>
       <c r="C267" t="n">
         <v>2</v>
@@ -3378,10 +3378,10 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1.585866988535761</v>
+        <v>1.523772247435478</v>
       </c>
       <c r="B268" t="n">
-        <v>-1.332271845675765</v>
+        <v>-1.334195955206459</v>
       </c>
       <c r="C268" t="n">
         <v>2</v>
@@ -3389,10 +3389,10 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1.423729747314593</v>
+        <v>1.197780943469365</v>
       </c>
       <c r="B269" t="n">
-        <v>-1.258073535924052</v>
+        <v>-1.203839502044402</v>
       </c>
       <c r="C269" t="n">
         <v>2</v>
@@ -3400,10 +3400,10 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>-0.5736941679283706</v>
+        <v>-2.818216996294159</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.2304960302189006</v>
+        <v>0.6014760023258979</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -3411,10 +3411,10 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1.311511821731675</v>
+        <v>0.9721568511040166</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.702844005374319</v>
+        <v>-0.2283758757772754</v>
       </c>
       <c r="C271" t="n">
         <v>2</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>-0.2522196238978043</v>
+        <v>-2.171863912874643</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.7784578632409995</v>
+        <v>-0.3612192566357302</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1.034875010461661</v>
+        <v>0.4159540062071736</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.6548460154748185</v>
+        <v>-0.1440498615709651</v>
       </c>
       <c r="C273" t="n">
         <v>2</v>
@@ -3444,10 +3444,10 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>-0.6220813540741953</v>
+        <v>-2.915503725660744</v>
       </c>
       <c r="B274" t="n">
-        <v>1.135387303853339</v>
+        <v>3.001149356862284</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -3455,10 +3455,10 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>-0.7498893324216447</v>
+        <v>-3.172473001842793</v>
       </c>
       <c r="B275" t="n">
-        <v>1.264733583419593</v>
+        <v>3.228393377519716</v>
       </c>
       <c r="C275" t="n">
         <v>1</v>
@@ -3466,10 +3466,10 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>-0.05811558639988983</v>
+        <v>-1.781600529752694</v>
       </c>
       <c r="B276" t="n">
-        <v>0.4224237854522266</v>
+        <v>1.748568323632416</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
@@ -3477,10 +3477,10 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>-0.7311640810830299</v>
+        <v>-3.134824223221714</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.2970507939874699</v>
+        <v>0.4845482316672272</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -3488,10 +3488,10 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>-0.9299693185876755</v>
+        <v>-3.534539785922253</v>
       </c>
       <c r="B278" t="n">
-        <v>1.807494263997244</v>
+        <v>4.18195091100913</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>-0.7090257624312389</v>
+        <v>-3.090313170051207</v>
       </c>
       <c r="B279" t="n">
-        <v>0.9448296482358732</v>
+        <v>2.666365179267238</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -3510,10 +3510,10 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>-0.5683126516463797</v>
+        <v>-2.807396980504647</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.1697303573797057</v>
+        <v>0.7082331186514561</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -3521,10 +3521,10 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.08607034497127206</v>
+        <v>-1.491701926401369</v>
       </c>
       <c r="B281" t="n">
-        <v>0.1709933850713772</v>
+        <v>1.306838918738434</v>
       </c>
       <c r="C281" t="n">
         <v>1</v>
@@ -3532,10 +3532,10 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>-0.274002933387861</v>
+        <v>-2.21566118863854</v>
       </c>
       <c r="B282" t="n">
-        <v>0.6853996543892461</v>
+        <v>2.210581564318786</v>
       </c>
       <c r="C282" t="n">
         <v>1</v>
@@ -3543,10 +3543,10 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>-0.2901604237121673</v>
+        <v>-2.248147255997091</v>
       </c>
       <c r="B283" t="n">
-        <v>0.6972962355951343</v>
+        <v>2.231482257824384</v>
       </c>
       <c r="C283" t="n">
         <v>1</v>
@@ -3554,10 +3554,10 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>-2.00739632727842</v>
+        <v>-5.700802347478339</v>
       </c>
       <c r="B284" t="n">
-        <v>1.972591233531367</v>
+        <v>4.472004086725518</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.7518101933198692</v>
+        <v>-0.1531729146160898</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.4393501554592606</v>
+        <v>0.2345473878372243</v>
       </c>
       <c r="C285" t="n">
         <v>2</v>
@@ -3576,10 +3576,10 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>-0.4315307062951332</v>
+        <v>-2.532384747730496</v>
       </c>
       <c r="B286" t="n">
-        <v>0.8308571664425476</v>
+        <v>2.466130854059956</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>1.352449217790115</v>
+        <v>1.054465116753265</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.9055221618248434</v>
+        <v>-0.5844541435535164</v>
       </c>
       <c r="C287" t="n">
         <v>2</v>
@@ -3598,10 +3598,10 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>-0.3441669400729227</v>
+        <v>-2.356732147157872</v>
       </c>
       <c r="B288" t="n">
-        <v>0.7347184444227268</v>
+        <v>2.297228046759181</v>
       </c>
       <c r="C288" t="n">
         <v>1</v>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>-0.2647119368453048</v>
+        <v>-2.196980816040359</v>
       </c>
       <c r="B289" t="n">
-        <v>-1.001944923035609</v>
+        <v>-0.7538559695194685</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -3620,10 +3620,10 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>-0.8399278568098203</v>
+        <v>-3.353503440941284</v>
       </c>
       <c r="B290" t="n">
-        <v>0.1366631751635365</v>
+        <v>1.246525356140173</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -3631,10 +3631,10 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>-0.3719890268548809</v>
+        <v>-2.412670920266371</v>
       </c>
       <c r="B291" t="n">
-        <v>0.7260127488122284</v>
+        <v>2.281933310182424</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
@@ -3642,10 +3642,10 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>-0.264880633070207</v>
+        <v>-2.197319994762754</v>
       </c>
       <c r="B292" t="n">
-        <v>0.6970942861670762</v>
+        <v>2.231127459834405</v>
       </c>
       <c r="C292" t="n">
         <v>1</v>
@@ -3653,10 +3653,10 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>-0.4834676666490812</v>
+        <v>-2.636808612983788</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.07399750641405023</v>
+        <v>0.8764228650854926</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -3664,10 +3664,10 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.8408266804647584</v>
+        <v>0.02580262795689331</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.5325277973507998</v>
+        <v>0.07084680016036035</v>
       </c>
       <c r="C294" t="n">
         <v>2</v>
@@ -3675,10 +3675,10 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>1.400238121980374</v>
+        <v>1.150548947184568</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.9518961155264649</v>
+        <v>-0.6659269445360927</v>
       </c>
       <c r="C295" t="n">
         <v>2</v>
@@ -3686,10 +3686,10 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>-0.4422362768605841</v>
+        <v>-2.55390924686498</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.6777258542603556</v>
+        <v>-0.1842466617808707</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -3697,10 +3697,10 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>-1.027936754932097</v>
+        <v>-3.731512005750338</v>
       </c>
       <c r="B297" t="n">
-        <v>0.1383518628509934</v>
+        <v>1.249492153337737</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.1360116935493939</v>
+        <v>-1.391290415620818</v>
       </c>
       <c r="B298" t="n">
-        <v>0.3040253344351944</v>
+        <v>1.540558165636794</v>
       </c>
       <c r="C298" t="n">
         <v>1</v>
@@ -3719,10 +3719,10 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>1.060882496732206</v>
+        <v>0.4682443640445239</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.7524330564684477</v>
+        <v>-0.3154971705605898</v>
       </c>
       <c r="C299" t="n">
         <v>2</v>
@@ -3730,10 +3730,10 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>-0.9392192850853074</v>
+        <v>-3.553137663976022</v>
       </c>
       <c r="B300" t="n">
-        <v>0.07163984557615369</v>
+        <v>1.132288109413633</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -3741,10 +3741,10 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>-0.8339139421555412</v>
+        <v>-3.341411932134772</v>
       </c>
       <c r="B301" t="n">
-        <v>0.1575141236135924</v>
+        <v>1.283157668845268</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>-1.577186753439742</v>
+        <v>-4.835827842558325</v>
       </c>
       <c r="B302" t="n">
-        <v>1.255106833187631</v>
+        <v>3.211480471822606</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -3763,10 +3763,10 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>-0.8991933281669067</v>
+        <v>-3.472661927556391</v>
       </c>
       <c r="B303" t="n">
-        <v>1.422437780592297</v>
+        <v>3.505458446265823</v>
       </c>
       <c r="C303" t="n">
         <v>1</v>
@@ -3774,10 +3774,10 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>-0.7670051393419094</v>
+        <v>-3.206885849713803</v>
       </c>
       <c r="B304" t="n">
-        <v>0.08847128976487467</v>
+        <v>1.161858693613985</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -3785,10 +3785,10 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>1.045962286827179</v>
+        <v>0.4382459587074488</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.8548010142817678</v>
+        <v>-0.4953439075366901</v>
       </c>
       <c r="C305" t="n">
         <v>2</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>-0.5369636687872352</v>
+        <v>-2.744367070020826</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.2627988254745151</v>
+        <v>0.5447243346553978</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -3807,10 +3807,10 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0.9690672804685748</v>
+        <v>0.2836417283497209</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.3614086905940577</v>
+        <v>0.3714800612105341</v>
       </c>
       <c r="C307" t="n">
         <v>2</v>
@@ -3818,10 +3818,10 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>-0.2487016250167731</v>
+        <v>-2.164790664101313</v>
       </c>
       <c r="B308" t="n">
-        <v>0.5049563295692268</v>
+        <v>1.893566905911911</v>
       </c>
       <c r="C308" t="n">
         <v>1</v>
@@ -3829,10 +3829,10 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>0.9646203182076067</v>
+        <v>0.2747007163081775</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.3067640941377559</v>
+        <v>0.4674832694015533</v>
       </c>
       <c r="C309" t="n">
         <v>2</v>
@@ -3840,10 +3840,10 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>1.64162222046434</v>
+        <v>1.635873086344766</v>
       </c>
       <c r="B310" t="n">
-        <v>-1.513947463783281</v>
+        <v>-1.653375587219217</v>
       </c>
       <c r="C310" t="n">
         <v>2</v>
@@ -3851,10 +3851,10 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>-0.4425800170910128</v>
+        <v>-2.55460036708572</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.2119888080219269</v>
+        <v>0.6339907031533505</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -3862,10 +3862,10 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>-1.193414463146725</v>
+        <v>-4.064219614883926</v>
       </c>
       <c r="B312" t="n">
-        <v>2.188174051372681</v>
+        <v>4.850754109340781</v>
       </c>
       <c r="C312" t="n">
         <v>1</v>
@@ -3873,10 +3873,10 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>-0.4783259136689311</v>
+        <v>-2.626470662578031</v>
       </c>
       <c r="B313" t="n">
-        <v>1.011910718143645</v>
+        <v>2.784217599042761</v>
       </c>
       <c r="C313" t="n">
         <v>1</v>
@@ -3884,10 +3884,10 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>0.02286991834945095</v>
+        <v>-1.61877198958049</v>
       </c>
       <c r="B314" t="n">
-        <v>-1.306300073676147</v>
+        <v>-1.288567044096046</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>-0.8485634418431726</v>
+        <v>-3.370866050569584</v>
       </c>
       <c r="B315" t="n">
-        <v>1.19042475369105</v>
+        <v>3.09784275561943</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -3906,10 +3906,10 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>-0.6271468417034938</v>
+        <v>-2.925688337814387</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.119415428217705</v>
+        <v>0.7966296835948667</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -3917,10 +3917,10 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>-1.368044599466586</v>
+        <v>-4.41532899248236</v>
       </c>
       <c r="B317" t="n">
-        <v>1.05965039628678</v>
+        <v>2.868089794227013</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -3928,10 +3928,10 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>1.273360736000417</v>
+        <v>0.8954507094946941</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.661572579234781</v>
+        <v>-0.1558675296101874</v>
       </c>
       <c r="C318" t="n">
         <v>2</v>
@@ -3939,10 +3939,10 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>-0.3730893150145596</v>
+        <v>-2.41488314719962</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.414413068376509</v>
+        <v>0.2783584966775549</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -3950,10 +3950,10 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>1.310727628266829</v>
+        <v>0.9705801605902179</v>
       </c>
       <c r="B320" t="n">
-        <v>-1.288364360317827</v>
+        <v>-1.257056407450203</v>
       </c>
       <c r="C320" t="n">
         <v>2</v>
@@ -3961,10 +3961,10 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>-0.3905762766584293</v>
+        <v>-2.450042234561384</v>
       </c>
       <c r="B321" t="n">
-        <v>0.4972263507455349</v>
+        <v>1.879986372529868</v>
       </c>
       <c r="C321" t="n">
         <v>1</v>
@@ -3972,10 +3972,10 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>-1.372263383570338</v>
+        <v>-4.42381123210094</v>
       </c>
       <c r="B322" t="n">
-        <v>0.996684932953701</v>
+        <v>2.75746794179841</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>1.51857399658684</v>
+        <v>1.388473718682998</v>
       </c>
       <c r="B323" t="n">
-        <v>-1.252173855275498</v>
+        <v>-1.193474556445131</v>
       </c>
       <c r="C323" t="n">
         <v>2</v>
@@ -3994,10 +3994,10 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>0.9675167798205833</v>
+        <v>0.2805243092778765</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.6031085882774978</v>
+        <v>-0.05315415885561867</v>
       </c>
       <c r="C324" t="n">
         <v>2</v>
@@ -4005,10 +4005,10 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>-0.2121222186770591</v>
+        <v>-2.09124452330616</v>
       </c>
       <c r="B325" t="n">
-        <v>-1.126393409398748</v>
+        <v>-0.9724952261005251</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -4016,10 +4016,10 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>-1.153408548615011</v>
+        <v>-3.983784175460352</v>
       </c>
       <c r="B326" t="n">
-        <v>1.787214892393226</v>
+        <v>4.146322781965474</v>
       </c>
       <c r="C326" t="n">
         <v>1</v>
@@ -4027,10 +4027,10 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>-0.5318586839494208</v>
+        <v>-2.734103045226323</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.651792145699827</v>
+        <v>-0.1386846230147389</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -4038,10 +4038,10 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>-0.3636833330450048</v>
+        <v>-2.395971586202018</v>
       </c>
       <c r="B328" t="n">
-        <v>0.9207666626962583</v>
+        <v>2.624089749302182</v>
       </c>
       <c r="C328" t="n">
         <v>1</v>
@@ -4049,10 +4049,10 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>1.28746278677011</v>
+        <v>0.9238041333249272</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.7768685211243451</v>
+        <v>-0.3584269962475699</v>
       </c>
       <c r="C329" t="n">
         <v>2</v>
@@ -4060,10 +4060,10 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>-0.04647472898570306</v>
+        <v>-1.758195553455127</v>
       </c>
       <c r="B330" t="n">
-        <v>-1.097015508475908</v>
+        <v>-0.9208822044769513</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>1.268778206780558</v>
+        <v>0.8862371280584173</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.767831415688028</v>
+        <v>-0.3425500171698539</v>
       </c>
       <c r="C331" t="n">
         <v>2</v>
@@ -4082,10 +4082,10 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>-0.8732109695056113</v>
+        <v>-3.420422091006087</v>
       </c>
       <c r="B332" t="n">
-        <v>0.2015603571093253</v>
+        <v>1.360540978422869</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -4093,10 +4093,10 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>1.176890484568363</v>
+        <v>0.7014887127232317</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.8512475353964561</v>
+        <v>-0.4891009229535432</v>
       </c>
       <c r="C333" t="n">
         <v>2</v>
@@ -4104,10 +4104,10 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>-0.01779178166940059</v>
+        <v>-1.700525943889746</v>
       </c>
       <c r="B334" t="n">
-        <v>0.2825109067685203</v>
+        <v>1.502760209162799</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
@@ -4115,10 +4115,10 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>1.502654877893952</v>
+        <v>1.356466918631387</v>
       </c>
       <c r="B335" t="n">
-        <v>-1.50062638717408</v>
+        <v>-1.629972246834695</v>
       </c>
       <c r="C335" t="n">
         <v>2</v>
@@ -4126,10 +4126,10 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>1.45099736386272</v>
+        <v>1.252604904994939</v>
       </c>
       <c r="B336" t="n">
-        <v>-1.175767648177055</v>
+        <v>-1.059239124529667</v>
       </c>
       <c r="C336" t="n">
         <v>2</v>
@@ -4137,10 +4137,10 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>0.8836865507710434</v>
+        <v>0.1119761985920657</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.3527004501563508</v>
+        <v>0.3867792687065064</v>
       </c>
       <c r="C337" t="n">
         <v>2</v>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>1.091214961803714</v>
+        <v>0.5292304753579598</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.8713188815947395</v>
+        <v>-0.5243635793314477</v>
       </c>
       <c r="C338" t="n">
         <v>2</v>
@@ -4159,10 +4159,10 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>1.711155950207589</v>
+        <v>1.775676817171227</v>
       </c>
       <c r="B339" t="n">
-        <v>-1.545847667885399</v>
+        <v>-1.709419956367421</v>
       </c>
       <c r="C339" t="n">
         <v>2</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>-0.4018550343162984</v>
+        <v>-2.472719177183043</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.2744799804912756</v>
+        <v>0.5242021159968263</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -4181,10 +4181,10 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>-0.8355289982555371</v>
+        <v>-3.344659145668508</v>
       </c>
       <c r="B341" t="n">
-        <v>0.08670491868591491</v>
+        <v>1.158755417143244</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -4192,10 +4192,10 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>-0.9384591177907704</v>
+        <v>-3.551609280208591</v>
       </c>
       <c r="B342" t="n">
-        <v>1.173533810788698</v>
+        <v>3.06816764017972</v>
       </c>
       <c r="C342" t="n">
         <v>1</v>
@@ -4203,10 +4203,10 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>-0.934998966774066</v>
+        <v>-3.54465233969721</v>
       </c>
       <c r="B343" t="n">
-        <v>0.5367810999536647</v>
+        <v>1.949478748161342</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -4214,10 +4214,10 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>1.855193902503782</v>
+        <v>2.065277895467572</v>
       </c>
       <c r="B344" t="n">
-        <v>-1.999523900727309</v>
+        <v>-2.506468093920577</v>
       </c>
       <c r="C344" t="n">
         <v>2</v>
@@ -4225,10 +4225,10 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>-0.6850137375030224</v>
+        <v>-3.042034864226708</v>
       </c>
       <c r="B345" t="n">
-        <v>1.194226409825257</v>
+        <v>3.104521754257745</v>
       </c>
       <c r="C345" t="n">
         <v>1</v>
@@ -4236,10 +4236,10 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>1.163763097028649</v>
+        <v>0.675094935762993</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.8726573633594416</v>
+        <v>-0.5267151118131513</v>
       </c>
       <c r="C346" t="n">
         <v>2</v>
@@ -4247,10 +4247,10 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>-1.062678525786387</v>
+        <v>-3.801363417416046</v>
       </c>
       <c r="B347" t="n">
-        <v>0.4710332131470644</v>
+        <v>1.833968551828184</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -4258,10 +4258,10 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>-0.3832958348168647</v>
+        <v>-2.435404260512327</v>
       </c>
       <c r="B348" t="n">
-        <v>-0.7012226732463425</v>
+        <v>-0.2255274132407572</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -4269,10 +4269,10 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>-0.6058545495881178</v>
+        <v>-2.882878296032249</v>
       </c>
       <c r="B349" t="n">
-        <v>-0.2856868789174462</v>
+        <v>0.5045131023970344</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -4280,10 +4280,10 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>-1.116154429589784</v>
+        <v>-3.908881464968465</v>
       </c>
       <c r="B350" t="n">
-        <v>0.3221827935724274</v>
+        <v>1.572458379799153</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -4291,10 +4291,10 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>-0.7310843948826177</v>
+        <v>-3.134664007048151</v>
       </c>
       <c r="B351" t="n">
-        <v>1.320533744264082</v>
+        <v>3.326426756957876</v>
       </c>
       <c r="C351" t="n">
         <v>1</v>
@@ -4302,10 +4302,10 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>1.744788774181611</v>
+        <v>1.84329859277797</v>
       </c>
       <c r="B352" t="n">
-        <v>-1.442103298079733</v>
+        <v>-1.527155048599933</v>
       </c>
       <c r="C352" t="n">
         <v>2</v>
@@ -4313,10 +4313,10 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>-0.6270479415712904</v>
+        <v>-2.92548949032681</v>
       </c>
       <c r="B353" t="n">
-        <v>1.072176630431428</v>
+        <v>2.890096703279764</v>
       </c>
       <c r="C353" t="n">
         <v>1</v>
@@ -4324,10 +4324,10 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>-0.5003116783271776</v>
+        <v>-2.670674992413995</v>
       </c>
       <c r="B354" t="n">
-        <v>0.9851915438149048</v>
+        <v>2.737275602539493</v>
       </c>
       <c r="C354" t="n">
         <v>1</v>
@@ -4335,10 +4335,10 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>1.239323803702314</v>
+        <v>0.8270164382606764</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.617822932810995</v>
+        <v>-0.07900528363743234</v>
       </c>
       <c r="C355" t="n">
         <v>2</v>
@@ -4346,10 +4346,10 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>-0.6904813947995012</v>
+        <v>-3.053028074165982</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.1228169994847145</v>
+        <v>0.7906535802708271</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -4357,10 +4357,10 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>1.047297902106696</v>
+        <v>0.4409313316870767</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.4227254112542861</v>
+        <v>0.2637548279600354</v>
       </c>
       <c r="C357" t="n">
         <v>2</v>
@@ -4368,10 +4368,10 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>1.541497116530929</v>
+        <v>1.434562684458307</v>
       </c>
       <c r="B358" t="n">
-        <v>-1.004842319249465</v>
+        <v>-0.7589463050689872</v>
       </c>
       <c r="C358" t="n">
         <v>2</v>
@@ -4379,10 +4379,10 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>-0.6456148823963602</v>
+        <v>-2.962819971619322</v>
       </c>
       <c r="B359" t="n">
-        <v>1.234381530045759</v>
+        <v>3.175068901029102</v>
       </c>
       <c r="C359" t="n">
         <v>1</v>
@@ -4390,10 +4390,10 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>1.735806557624075</v>
+        <v>1.825239049726396</v>
       </c>
       <c r="B360" t="n">
-        <v>-1.547158213379578</v>
+        <v>-1.711722408578264</v>
       </c>
       <c r="C360" t="n">
         <v>2</v>
@@ -4401,10 +4401,10 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>1.114459153159845</v>
+        <v>0.575964983684069</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.7254347365305954</v>
+        <v>-0.2680647527574117</v>
       </c>
       <c r="C361" t="n">
         <v>2</v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>1.584048388594715</v>
+        <v>1.520115790956331</v>
       </c>
       <c r="B362" t="n">
-        <v>-1.411893127719522</v>
+        <v>-1.474079841485963</v>
       </c>
       <c r="C362" t="n">
         <v>2</v>
@@ -4423,10 +4423,10 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>-1.185836915273385</v>
+        <v>-4.048984282806662</v>
       </c>
       <c r="B363" t="n">
-        <v>0.5489973422536768</v>
+        <v>1.970941043226104</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -4434,10 +4434,10 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>-0.4980037010156403</v>
+        <v>-2.666034599326969</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.6458240893791604</v>
+        <v>-0.1281995505536977</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -4445,10 +4445,10 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0.9171159591374898</v>
+        <v>0.1791889890781715</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.2885517160454635</v>
+        <v>0.4994799687832773</v>
       </c>
       <c r="C365" t="n">
         <v>2</v>
@@ -4456,10 +4456,10 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>0.9863110540090516</v>
+        <v>0.3183118644604522</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.7732662142057836</v>
+        <v>-0.352098227375662</v>
       </c>
       <c r="C366" t="n">
         <v>2</v>
@@ -4467,10 +4467,10 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>-0.2673308507144385</v>
+        <v>-2.20224637465443</v>
       </c>
       <c r="B367" t="n">
-        <v>0.55586461409052</v>
+        <v>1.983005916436102</v>
       </c>
       <c r="C367" t="n">
         <v>1</v>
@@ -4478,10 +4478,10 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>-0.3350154249361567</v>
+        <v>-2.338332214297102</v>
       </c>
       <c r="B368" t="n">
-        <v>0.6125795336839152</v>
+        <v>2.082646403993106</v>
       </c>
       <c r="C368" t="n">
         <v>1</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>1.41918310688889</v>
+        <v>1.188639519636835</v>
       </c>
       <c r="B369" t="n">
-        <v>-1.096192617532836</v>
+        <v>-0.9194364957399593</v>
       </c>
       <c r="C369" t="n">
         <v>2</v>
@@ -4500,10 +4500,10 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>-0.8266818866069368</v>
+        <v>-3.326871243019252</v>
       </c>
       <c r="B370" t="n">
-        <v>0.006089615708936305</v>
+        <v>1.017125169745041</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -4511,10 +4511,10 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>1.945835981297094</v>
+        <v>2.247521834228835</v>
       </c>
       <c r="B371" t="n">
-        <v>-1.880115777297363</v>
+        <v>-2.296684077261013</v>
       </c>
       <c r="C371" t="n">
         <v>2</v>
@@ -4522,10 +4522,10 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>-0.6422983551339536</v>
+        <v>-2.956151799404424</v>
       </c>
       <c r="B372" t="n">
-        <v>1.443567822477338</v>
+        <v>3.542581088607904</v>
       </c>
       <c r="C372" t="n">
         <v>1</v>
@@ -4533,10 +4533,10 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>1.211719290033701</v>
+        <v>0.7715151151938404</v>
       </c>
       <c r="B373" t="n">
-        <v>-1.049376997235195</v>
+        <v>-0.8371877459368519</v>
       </c>
       <c r="C373" t="n">
         <v>2</v>
@@ -4544,10 +4544,10 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>-0.6248094871415026</v>
+        <v>-2.920988879159757</v>
       </c>
       <c r="B374" t="n">
-        <v>1.284469866837443</v>
+        <v>3.263067373646597</v>
       </c>
       <c r="C374" t="n">
         <v>1</v>
@@ -4555,10 +4555,10 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>1.295247449560353</v>
+        <v>0.9394558883123335</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.961781408798994</v>
+        <v>-0.6832940755905018</v>
       </c>
       <c r="C375" t="n">
         <v>2</v>
@@ -4566,10 +4566,10 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>-0.8268826497156232</v>
+        <v>-3.327274895055614</v>
       </c>
       <c r="B376" t="n">
-        <v>0.2193980565759806</v>
+        <v>1.39187941784049</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -4577,10 +4577,10 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>1.341553348974955</v>
+        <v>1.032558006109557</v>
       </c>
       <c r="B377" t="n">
-        <v>-1.021402708901463</v>
+        <v>-0.7880406828956512</v>
       </c>
       <c r="C377" t="n">
         <v>2</v>
@@ -4588,10 +4588,10 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>-0.1357369134975719</v>
+        <v>-1.937665092376139</v>
       </c>
       <c r="B378" t="n">
-        <v>0.5211506361426769</v>
+        <v>1.922018124994906</v>
       </c>
       <c r="C378" t="n">
         <v>1</v>
@@ -4599,10 +4599,10 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>1.662397024407094</v>
+        <v>1.677642672258102</v>
       </c>
       <c r="B379" t="n">
-        <v>-2.01102768754975</v>
+        <v>-2.526678700511535</v>
       </c>
       <c r="C379" t="n">
         <v>2</v>
@@ -4610,10 +4610,10 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>-0.4620178959584967</v>
+        <v>-2.593681946558895</v>
       </c>
       <c r="B380" t="n">
-        <v>1.134486055012004</v>
+        <v>2.999565983834435</v>
       </c>
       <c r="C380" t="n">
         <v>1</v>
@@ -4621,10 +4621,10 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>-1.150008889133412</v>
+        <v>-3.976948858545496</v>
       </c>
       <c r="B381" t="n">
-        <v>0.9899157966205828</v>
+        <v>2.745575479472672</v>
       </c>
       <c r="C381" t="n">
         <v>0</v>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>-1.299941222093674</v>
+        <v>-4.278401111959169</v>
       </c>
       <c r="B382" t="n">
-        <v>2.266897468806291</v>
+        <v>4.989060568231571</v>
       </c>
       <c r="C382" t="n">
         <v>1</v>
@@ -4643,10 +4643,10 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>-1.276301710110784</v>
+        <v>-4.23087177645066</v>
       </c>
       <c r="B383" t="n">
-        <v>0.3110513954453392</v>
+        <v>1.552902010072706</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
@@ -4654,10 +4654,10 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0.8757739138455859</v>
+        <v>0.09606714025535885</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.4098510268724861</v>
+        <v>0.2863733901654594</v>
       </c>
       <c r="C384" t="n">
         <v>2</v>
@@ -4665,10 +4665,10 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>-1.099597061332961</v>
+        <v>-3.875591407560087</v>
       </c>
       <c r="B385" t="n">
-        <v>1.973767400289068</v>
+        <v>4.474070453565599</v>
       </c>
       <c r="C385" t="n">
         <v>1</v>
@@ -4676,10 +4676,10 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>0.9193896484535858</v>
+        <v>0.1837604431092469</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.1279763213809253</v>
+        <v>0.7815893454471241</v>
       </c>
       <c r="C386" t="n">
         <v>2</v>
@@ -4687,10 +4687,10 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>-0.8220010489735806</v>
+        <v>-3.317460003798339</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.0687306720814045</v>
+        <v>0.8856759848033579</v>
       </c>
       <c r="C387" t="n">
         <v>0</v>
@@ -4698,10 +4698,10 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>-0.6473244816417886</v>
+        <v>-2.966257272532296</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.2601315500734597</v>
+        <v>0.5494103788800098</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -4709,10 +4709,10 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>1.620420803773883</v>
+        <v>1.593245757664471</v>
       </c>
       <c r="B389" t="n">
-        <v>-1.296245891074341</v>
+        <v>-1.270903197199791</v>
       </c>
       <c r="C389" t="n">
         <v>2</v>
@@ -4720,10 +4720,10 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>-0.7524603774513199</v>
+        <v>-3.177642315909486</v>
       </c>
       <c r="B390" t="n">
-        <v>1.131744959495252</v>
+        <v>2.994750247592762</v>
       </c>
       <c r="C390" t="n">
         <v>1</v>
@@ -4731,10 +4731,10 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>-0.6484528484070097</v>
+        <v>-2.968525953992373</v>
       </c>
       <c r="B391" t="n">
-        <v>1.081495119677745</v>
+        <v>2.90646803587539</v>
       </c>
       <c r="C391" t="n">
         <v>1</v>
@@ -4742,10 +4742,10 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>-0.6690931499301206</v>
+        <v>-3.010025110861549</v>
       </c>
       <c r="B392" t="n">
-        <v>1.360048056097421</v>
+        <v>3.395848089559252</v>
       </c>
       <c r="C392" t="n">
         <v>1</v>
@@ -4753,10 +4753,10 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>-0.5982025062830099</v>
+        <v>-2.867493184282169</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.4302454469377572</v>
+        <v>0.2505431364453676</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -4764,10 +4764,10 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>-0.5262294401100228</v>
+        <v>-2.722784951210863</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.4056622507097312</v>
+        <v>0.2937325066398599</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -4775,10 +4775,10 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>-0.633116712194465</v>
+        <v>-2.937691291924145</v>
       </c>
       <c r="B395" t="n">
-        <v>1.280479676928353</v>
+        <v>3.256057146516996</v>
       </c>
       <c r="C395" t="n">
         <v>1</v>
@@ -4786,10 +4786,10 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>1.543578851691966</v>
+        <v>1.438748197635583</v>
       </c>
       <c r="B396" t="n">
-        <v>-1.113130935204319</v>
+        <v>-0.9491948422787871</v>
       </c>
       <c r="C396" t="n">
         <v>2</v>
@@ -4797,10 +4797,10 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>-0.6361963909786847</v>
+        <v>-2.943883259266769</v>
       </c>
       <c r="B397" t="n">
-        <v>1.193238764525911</v>
+        <v>3.102786594270467</v>
       </c>
       <c r="C397" t="n">
         <v>1</v>
@@ -4808,10 +4808,10 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>-0.8922050202385434</v>
+        <v>-3.458611314650153</v>
       </c>
       <c r="B398" t="n">
-        <v>0.3531757176725174</v>
+        <v>1.626908779981151</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -4819,10 +4819,10 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>0.9754838542620626</v>
+        <v>0.2965428190687898</v>
       </c>
       <c r="B399" t="n">
-        <v>-0.3316482744051452</v>
+        <v>0.4237651107217023</v>
       </c>
       <c r="C399" t="n">
         <v>2</v>
@@ -4830,10 +4830,10 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>0.6732072574086784</v>
+        <v>-0.3112110888212429</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.02001996582936324</v>
+        <v>0.9712541458057163</v>
       </c>
       <c r="C400" t="n">
         <v>2</v>
@@ -4841,10 +4841,10 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>-0.9009677001796618</v>
+        <v>-3.476229459862988</v>
       </c>
       <c r="B401" t="n">
-        <v>0.3914029490668474</v>
+        <v>1.69406888531839</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -4852,10 +4852,10 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>1.374445215411618</v>
+        <v>1.098690020869453</v>
       </c>
       <c r="B402" t="n">
-        <v>-1.243379647393642</v>
+        <v>-1.178024315709397</v>
       </c>
       <c r="C402" t="n">
         <v>2</v>
@@ -4863,10 +4863,10 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>-0.562387385477444</v>
+        <v>-2.795483707340446</v>
       </c>
       <c r="B403" t="n">
-        <v>1.120745319755671</v>
+        <v>2.975425359636279</v>
       </c>
       <c r="C403" t="n">
         <v>1</v>
@@ -4874,10 +4874,10 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>1.448204768064692</v>
+        <v>1.246990143458397</v>
       </c>
       <c r="B404" t="n">
-        <v>-1.381737809030799</v>
+        <v>-1.421101001383172</v>
       </c>
       <c r="C404" t="n">
         <v>2</v>
@@ -4885,10 +4885,10 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>-0.577491505621731</v>
+        <v>-2.825851880525165</v>
       </c>
       <c r="B405" t="n">
-        <v>0.9932356663320664</v>
+        <v>2.751408044149648</v>
       </c>
       <c r="C405" t="n">
         <v>1</v>
@@ -4896,10 +4896,10 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>1.575686793660929</v>
+        <v>1.503304062724302</v>
       </c>
       <c r="B406" t="n">
-        <v>-1.333762069731526</v>
+        <v>-1.336814078489535</v>
       </c>
       <c r="C406" t="n">
         <v>2</v>
@@ -4907,10 +4907,10 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>-0.9979332965307828</v>
+        <v>-3.671187391528022</v>
       </c>
       <c r="B407" t="n">
-        <v>1.509010066389105</v>
+        <v>3.657554311473096</v>
       </c>
       <c r="C407" t="n">
         <v>1</v>
@@ -4918,10 +4918,10 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>-0.7096256661175835</v>
+        <v>-3.091519329620055</v>
       </c>
       <c r="B408" t="n">
-        <v>0.7310144867927307</v>
+        <v>2.29072069125574</v>
       </c>
       <c r="C408" t="n">
         <v>1</v>
@@ -4929,10 +4929,10 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>-0.483328552076347</v>
+        <v>-2.636528910796772</v>
       </c>
       <c r="B409" t="n">
-        <v>0.6825697920326881</v>
+        <v>2.205609876675602</v>
       </c>
       <c r="C409" t="n">
         <v>1</v>
@@ -4940,10 +4940,10 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>-0.6157772712585787</v>
+        <v>-2.902828808029884</v>
       </c>
       <c r="B410" t="n">
-        <v>1.272002523702628</v>
+        <v>3.241163928179345</v>
       </c>
       <c r="C410" t="n">
         <v>1</v>
@@ -4951,10 +4951,10 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>1.841458318564641</v>
+        <v>2.037661285703325</v>
       </c>
       <c r="B411" t="n">
-        <v>-1.740105746330425</v>
+        <v>-2.050705279293334</v>
       </c>
       <c r="C411" t="n">
         <v>2</v>
@@ -4962,10 +4962,10 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>-0.3845737674986621</v>
+        <v>-2.437973657513179</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.298653472970192</v>
+        <v>0.4817325401987272</v>
       </c>
       <c r="C412" t="n">
         <v>0</v>
@@ -4973,10 +4973,10 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>-0.5677636277198848</v>
+        <v>-2.806293119205671</v>
       </c>
       <c r="B413" t="n">
-        <v>-0.05930966376550871</v>
+        <v>0.9022274296190138</v>
       </c>
       <c r="C413" t="n">
         <v>0</v>
@@ -4984,10 +4984,10 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>-0.6474486506227261</v>
+        <v>-2.96650692528143</v>
       </c>
       <c r="B414" t="n">
-        <v>0.0531690656850238</v>
+        <v>1.099837432817336</v>
       </c>
       <c r="C414" t="n">
         <v>0</v>
@@ -4995,10 +4995,10 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>0.3828244625049342</v>
+        <v>-0.8950514529906881</v>
       </c>
       <c r="B415" t="n">
-        <v>0.2036388803293906</v>
+        <v>1.364192664232011</v>
       </c>
       <c r="C415" t="n">
         <v>2</v>
@@ -5006,10 +5006,10 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>-0.48783117723759</v>
+        <v>-2.645581838036246</v>
       </c>
       <c r="B416" t="n">
-        <v>1.002043038829077</v>
+        <v>2.76688141334403</v>
       </c>
       <c r="C416" t="n">
         <v>1</v>
@@ -5017,10 +5017,10 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>1.527935967672218</v>
+        <v>1.407296791894493</v>
       </c>
       <c r="B417" t="n">
-        <v>-1.434053433440521</v>
+        <v>-1.51301251885345</v>
       </c>
       <c r="C417" t="n">
         <v>2</v>
@@ -5028,10 +5028,10 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>1.812481115608256</v>
+        <v>1.979400049075047</v>
       </c>
       <c r="B418" t="n">
-        <v>-1.868124418760566</v>
+        <v>-2.275616872729237</v>
       </c>
       <c r="C418" t="n">
         <v>2</v>
@@ -5039,10 +5039,10 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>1.320660861105047</v>
+        <v>0.9905518062228985</v>
       </c>
       <c r="B419" t="n">
-        <v>-1.176080178368315</v>
+        <v>-1.059788198051356</v>
       </c>
       <c r="C419" t="n">
         <v>2</v>
@@ -5050,10 +5050,10 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>-0.7246665879615554</v>
+        <v>-3.121760437016723</v>
       </c>
       <c r="B420" t="n">
-        <v>0.05246628148388764</v>
+        <v>1.098602735475779</v>
       </c>
       <c r="C420" t="n">
         <v>0</v>
@@ -5061,10 +5061,10 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>-1.338875287181847</v>
+        <v>-4.356681503010612</v>
       </c>
       <c r="B421" t="n">
-        <v>0.7001015047944172</v>
+        <v>2.236410738597153</v>
       </c>
       <c r="C421" t="n">
         <v>0</v>
@@ -5072,10 +5072,10 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>-0.08226667436963835</v>
+        <v>-1.830158434156157</v>
       </c>
       <c r="B422" t="n">
-        <v>-1.008822237679986</v>
+        <v>-0.7659384865918962</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -5083,10 +5083,10 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>-0.7475074587639875</v>
+        <v>-3.16768403359778</v>
       </c>
       <c r="B423" t="n">
-        <v>0.990452399344658</v>
+        <v>2.746518218304616</v>
       </c>
       <c r="C423" t="n">
         <v>1</v>
@@ -5094,10 +5094,10 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>-0.7347845831371356</v>
+        <v>-3.142103563715857</v>
       </c>
       <c r="B424" t="n">
-        <v>1.44096406528672</v>
+        <v>3.538006637338057</v>
       </c>
       <c r="C424" t="n">
         <v>1</v>
@@ -5105,10 +5105,10 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>-0.9902517905776199</v>
+        <v>-3.655743042510888</v>
       </c>
       <c r="B425" t="n">
-        <v>0.5432297633672133</v>
+        <v>1.960808182659771</v>
       </c>
       <c r="C425" t="n">
         <v>0</v>
@@ -5116,10 +5116,10 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>-0.7151088482658514</v>
+        <v>-3.102543753650802</v>
       </c>
       <c r="B426" t="n">
-        <v>1.325107002297031</v>
+        <v>3.334461356378873</v>
       </c>
       <c r="C426" t="n">
         <v>1</v>
@@ -5127,10 +5127,10 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>1.770395083078911</v>
+        <v>1.894782347924657</v>
       </c>
       <c r="B427" t="n">
-        <v>-1.753526408400702</v>
+        <v>-2.074283577942211</v>
       </c>
       <c r="C427" t="n">
         <v>2</v>
@@ -5138,10 +5138,10 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>-0.9136045627445838</v>
+        <v>-3.501636992855116</v>
       </c>
       <c r="B428" t="n">
-        <v>0.4859750870339151</v>
+        <v>1.860219415089118</v>
       </c>
       <c r="C428" t="n">
         <v>0</v>
@@ -5149,10 +5149,10 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>0.800559986624525</v>
+        <v>-0.05515713139584083</v>
       </c>
       <c r="B429" t="n">
-        <v>0.01612020090190859</v>
+        <v>1.034747559166999</v>
       </c>
       <c r="C429" t="n">
         <v>2</v>
@@ -5160,10 +5160,10 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>-0.6227882759634332</v>
+        <v>-2.916925054818309</v>
       </c>
       <c r="B430" t="n">
-        <v>0.7674760988803254</v>
+        <v>2.354778840884949</v>
       </c>
       <c r="C430" t="n">
         <v>1</v>
@@ -5171,10 +5171,10 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>-0.7434906257267</v>
+        <v>-3.159607834510037</v>
       </c>
       <c r="B431" t="n">
-        <v>-0.1159607733618652</v>
+        <v>0.8026990476465991</v>
       </c>
       <c r="C431" t="n">
         <v>0</v>
@@ -5182,10 +5182,10 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>-0.8337691347610232</v>
+        <v>-3.341120784024644</v>
       </c>
       <c r="B432" t="n">
-        <v>-0.03691396732966612</v>
+        <v>0.9415736568206809</v>
       </c>
       <c r="C432" t="n">
         <v>0</v>
@@ -5193,10 +5193,10 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>-0.2685087297118633</v>
+        <v>-2.204614604848757</v>
       </c>
       <c r="B433" t="n">
-        <v>0.4788625815217751</v>
+        <v>1.847723699286956</v>
       </c>
       <c r="C433" t="n">
         <v>1</v>
@@ -5204,10 +5204,10 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>-0.9397935793946728</v>
+        <v>-3.554292333621073</v>
       </c>
       <c r="B434" t="n">
-        <v>-0.03930147799578841</v>
+        <v>0.9373791216167965</v>
       </c>
       <c r="C434" t="n">
         <v>0</v>
@@ -5215,10 +5215,10 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>-0.08875746468639641</v>
+        <v>-1.843208743777771</v>
       </c>
       <c r="B435" t="n">
-        <v>0.6338197060471872</v>
+        <v>2.119962530776748</v>
       </c>
       <c r="C435" t="n">
         <v>1</v>
@@ -5226,10 +5226,10 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>-1.396934257802388</v>
+        <v>-4.473414212886333</v>
       </c>
       <c r="B436" t="n">
-        <v>2.277502226054123</v>
+        <v>5.007691700747904</v>
       </c>
       <c r="C436" t="n">
         <v>1</v>
@@ -5237,10 +5237,10 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>1.185206878357763</v>
+        <v>0.7182095600454342</v>
       </c>
       <c r="B437" t="n">
-        <v>-0.8002323173966365</v>
+        <v>-0.3994740446863855</v>
       </c>
       <c r="C437" t="n">
         <v>2</v>
@@ -5248,10 +5248,10 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>-0.254621848877817</v>
+        <v>-2.176693799258278</v>
       </c>
       <c r="B438" t="n">
-        <v>0.5959031228830892</v>
+        <v>2.05334819260873</v>
       </c>
       <c r="C438" t="n">
         <v>1</v>
@@ -5259,10 +5259,10 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>-0.3739384404375826</v>
+        <v>-2.416590389174364</v>
       </c>
       <c r="B439" t="n">
-        <v>0.7474900730201178</v>
+        <v>2.319666080868449</v>
       </c>
       <c r="C439" t="n">
         <v>1</v>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>-0.4054793708589046</v>
+        <v>-2.48000622725641</v>
       </c>
       <c r="B440" t="n">
-        <v>-0.3679617647216285</v>
+        <v>0.3599671911271498</v>
       </c>
       <c r="C440" t="n">
         <v>0</v>
@@ -5281,10 +5281,10 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>-0.8104723073141068</v>
+        <v>-3.294280446169541</v>
       </c>
       <c r="B441" t="n">
-        <v>1.241053962956122</v>
+        <v>3.186791468444279</v>
       </c>
       <c r="C441" t="n">
         <v>1</v>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>-0.9954758476598082</v>
+        <v>-3.666246472613618</v>
       </c>
       <c r="B442" t="n">
-        <v>0.3369724105943613</v>
+        <v>1.598441748221639</v>
       </c>
       <c r="C442" t="n">
         <v>0</v>
@@ -5303,10 +5303,10 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>0.0601262274132964</v>
+        <v>-1.543864875821717</v>
       </c>
       <c r="B443" t="n">
-        <v>0.0452925904992716</v>
+        <v>1.085999525025778</v>
       </c>
       <c r="C443" t="n">
         <v>1</v>
@@ -5314,10 +5314,10 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>0.1060007298718322</v>
+        <v>-1.451630119866697</v>
       </c>
       <c r="B444" t="n">
-        <v>0.457490566809398</v>
+        <v>1.81017594322411</v>
       </c>
       <c r="C444" t="n">
         <v>1</v>
@@ -5325,10 +5325,10 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>-0.2274231598434643</v>
+        <v>-2.122008422612558</v>
       </c>
       <c r="B445" t="n">
-        <v>0.7246555080289803</v>
+        <v>2.279548820627565</v>
       </c>
       <c r="C445" t="n">
         <v>1</v>
@@ -5336,10 +5336,10 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>-1.198448320744085</v>
+        <v>-4.074340632052984</v>
       </c>
       <c r="B446" t="n">
-        <v>1.860537618396792</v>
+        <v>4.275140952217359</v>
       </c>
       <c r="C446" t="n">
         <v>1</v>
@@ -5347,10 +5347,10 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>-0.2099796595039253</v>
+        <v>-2.086936718057879</v>
       </c>
       <c r="B447" t="n">
-        <v>-0.9789979730016002</v>
+        <v>-0.7135412638701077</v>
       </c>
       <c r="C447" t="n">
         <v>0</v>
@@ -5358,10 +5358,10 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>0.5635153632738148</v>
+        <v>-0.5317563709181515</v>
       </c>
       <c r="B448" t="n">
-        <v>0.1022560049438925</v>
+        <v>1.186076584622539</v>
       </c>
       <c r="C448" t="n">
         <v>2</v>
@@ -5369,10 +5369,10 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>-0.3408519138668574</v>
+        <v>-2.350066992949882</v>
       </c>
       <c r="B449" t="n">
-        <v>1.09187326384501</v>
+        <v>2.924701039680682</v>
       </c>
       <c r="C449" t="n">
         <v>1</v>
@@ -5380,10 +5380,10 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>2.048952712206733</v>
+        <v>2.454847167488345</v>
       </c>
       <c r="B450" t="n">
-        <v>-2.013632790389132</v>
+        <v>-2.531255515905316</v>
       </c>
       <c r="C450" t="n">
         <v>2</v>
@@ -5391,10 +5391,10 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>-1.101375621108758</v>
+        <v>-3.879167359735706</v>
       </c>
       <c r="B451" t="n">
-        <v>0.6346954962121506</v>
+        <v>2.121501176333512</v>
       </c>
       <c r="C451" t="n">
         <v>0</v>
@@ -5402,10 +5402,10 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>-0.9448343839635254</v>
+        <v>-3.564427318292466</v>
       </c>
       <c r="B452" t="n">
-        <v>-0.05092255602989426</v>
+        <v>0.916962450138501</v>
       </c>
       <c r="C452" t="n">
         <v>0</v>
@@ -5413,10 +5413,10 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>1.695977210753882</v>
+        <v>1.745158615246684</v>
       </c>
       <c r="B453" t="n">
-        <v>-1.658077191512283</v>
+        <v>-1.906592138443039</v>
       </c>
       <c r="C453" t="n">
         <v>2</v>
@@ -5424,10 +5424,10 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>-0.8696201531874904</v>
+        <v>-3.413202436317068</v>
       </c>
       <c r="B454" t="n">
-        <v>-0.01510197693249322</v>
+        <v>0.9798943910004063</v>
       </c>
       <c r="C454" t="n">
         <v>0</v>
@@ -5435,10 +5435,10 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>-0.4781692633390783</v>
+        <v>-2.626155703196023</v>
       </c>
       <c r="B455" t="n">
-        <v>-0.3917002085903327</v>
+        <v>0.3182619372384056</v>
       </c>
       <c r="C455" t="n">
         <v>0</v>
@@ -5446,10 +5446,10 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>-0.8395969093516048</v>
+        <v>-3.352838041723711</v>
       </c>
       <c r="B456" t="n">
-        <v>-0.113334146220152</v>
+        <v>0.8073136783453129</v>
       </c>
       <c r="C456" t="n">
         <v>0</v>
@@ -5457,10 +5457,10 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>1.099486733769914</v>
+        <v>0.5458616065469609</v>
       </c>
       <c r="B457" t="n">
-        <v>-0.7952758192848911</v>
+        <v>-0.3907661439792992</v>
       </c>
       <c r="C457" t="n">
         <v>2</v>
@@ -5468,10 +5468,10 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>-0.2701436094295535</v>
+        <v>-2.20790167552409</v>
       </c>
       <c r="B458" t="n">
-        <v>0.3735360616119371</v>
+        <v>1.662679166530166</v>
       </c>
       <c r="C458" t="n">
         <v>1</v>
@@ -5479,10 +5479,10 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>1.58683616681627</v>
+        <v>1.525720866328085</v>
       </c>
       <c r="B459" t="n">
-        <v>-1.15400427953759</v>
+        <v>-1.021003812240311</v>
       </c>
       <c r="C459" t="n">
         <v>2</v>
@@ -5490,10 +5490,10 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>-0.8138220957702333</v>
+        <v>-3.301015492964458</v>
       </c>
       <c r="B460" t="n">
-        <v>0.3208773508098253</v>
+        <v>1.570164892401552</v>
       </c>
       <c r="C460" t="n">
         <v>0</v>
@@ -5501,10 +5501,10 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>-0.6482668608361546</v>
+        <v>-2.968152009485312</v>
       </c>
       <c r="B461" t="n">
-        <v>1.689777901976762</v>
+        <v>3.975139091663386</v>
       </c>
       <c r="C461" t="n">
         <v>1</v>
@@ -5512,10 +5512,10 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>-0.317215118331083</v>
+        <v>-2.30254311909923</v>
       </c>
       <c r="B462" t="n">
-        <v>0.5285485886203767</v>
+        <v>1.935015332732946</v>
       </c>
       <c r="C462" t="n">
         <v>1</v>
@@ -5523,10 +5523,10 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>1.711881704574413</v>
+        <v>1.777136010695293</v>
       </c>
       <c r="B463" t="n">
-        <v>-1.280896119331761</v>
+        <v>-1.243935712254305</v>
       </c>
       <c r="C463" t="n">
         <v>2</v>
@@ -5534,10 +5534,10 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>1.448041794989921</v>
+        <v>1.246662471636947</v>
       </c>
       <c r="B464" t="n">
-        <v>-1.081405726512856</v>
+        <v>-0.8934579165363545</v>
       </c>
       <c r="C464" t="n">
         <v>2</v>
@@ -5545,10 +5545,10 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>-0.6616418548236189</v>
+        <v>-2.995043621169792</v>
       </c>
       <c r="B465" t="n">
-        <v>0.08242331291953546</v>
+        <v>1.151233211537603</v>
       </c>
       <c r="C465" t="n">
         <v>0</v>
@@ -5556,10 +5556,10 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>-0.840578469149594</v>
+        <v>-3.35481155475537</v>
       </c>
       <c r="B466" t="n">
-        <v>0.3129670318620986</v>
+        <v>1.556267525671005</v>
       </c>
       <c r="C466" t="n">
         <v>0</v>
@@ -5567,10 +5567,10 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>-1.353954088375281</v>
+        <v>-4.386998770199019</v>
       </c>
       <c r="B467" t="n">
-        <v>0.775851830160475</v>
+        <v>2.369493874501919</v>
       </c>
       <c r="C467" t="n">
         <v>0</v>
@@ -5578,10 +5578,10 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>1.794781403261819</v>
+        <v>1.943813207556203</v>
       </c>
       <c r="B468" t="n">
-        <v>-1.262607902234017</v>
+        <v>-1.21180577393769</v>
       </c>
       <c r="C468" t="n">
         <v>2</v>
@@ -5589,10 +5589,10 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>-0.5067476847400583</v>
+        <v>-2.683615154137898</v>
       </c>
       <c r="B469" t="n">
-        <v>-0.2275478349966274</v>
+        <v>0.6066555849025211</v>
       </c>
       <c r="C469" t="n">
         <v>0</v>
@@ -5600,10 +5600,10 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>1.311910106919497</v>
+        <v>0.9729576387993705</v>
       </c>
       <c r="B470" t="n">
-        <v>-1.232787454096743</v>
+        <v>-1.159415256365445</v>
       </c>
       <c r="C470" t="n">
         <v>2</v>
@@ -5611,10 +5611,10 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>1.92364333648392</v>
+        <v>2.202901553492502</v>
       </c>
       <c r="B471" t="n">
-        <v>-1.920462481742202</v>
+        <v>-2.367567811753167</v>
       </c>
       <c r="C471" t="n">
         <v>2</v>
@@ -5622,10 +5622,10 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>-1.291186186736622</v>
+        <v>-4.260798336860624</v>
       </c>
       <c r="B472" t="n">
-        <v>2.108627994172965</v>
+        <v>4.711002382997153</v>
       </c>
       <c r="C472" t="n">
         <v>1</v>
@@ -5633,10 +5633,10 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>-0.6424842215710965</v>
+        <v>-2.956525500361412</v>
       </c>
       <c r="B473" t="n">
-        <v>0.08214491036494051</v>
+        <v>1.150744095684564</v>
       </c>
       <c r="C473" t="n">
         <v>0</v>
@@ -5644,10 +5644,10 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>1.766805532522095</v>
+        <v>1.887565238161005</v>
       </c>
       <c r="B474" t="n">
-        <v>-1.71526580574754</v>
+        <v>-2.007064843790471</v>
       </c>
       <c r="C474" t="n">
         <v>2</v>
@@ -5655,10 +5655,10 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>-0.5101449396979428</v>
+        <v>-2.690445636544561</v>
       </c>
       <c r="B475" t="n">
-        <v>-0.1866556355649368</v>
+        <v>0.6784976807366195</v>
       </c>
       <c r="C475" t="n">
         <v>0</v>
@@ -5666,10 +5666,10 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>-0.7052195731951031</v>
+        <v>-3.082660489008379</v>
       </c>
       <c r="B476" t="n">
-        <v>1.434109438352351</v>
+        <v>3.52596397952141</v>
       </c>
       <c r="C476" t="n">
         <v>1</v>
@@ -5677,10 +5677,10 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>1.162571635436372</v>
+        <v>0.672699396557031</v>
       </c>
       <c r="B477" t="n">
-        <v>-0.791039398350749</v>
+        <v>-0.383323322048123</v>
       </c>
       <c r="C477" t="n">
         <v>2</v>
@@ -5688,10 +5688,10 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>0.9284752330282421</v>
+        <v>0.2020278167272946</v>
       </c>
       <c r="B478" t="n">
-        <v>-0.6902401318281806</v>
+        <v>-0.2062325647358837</v>
       </c>
       <c r="C478" t="n">
         <v>2</v>
@@ -5699,10 +5699,10 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>1.462837606733538</v>
+        <v>1.276410763437223</v>
       </c>
       <c r="B479" t="n">
-        <v>-1.448113195991432</v>
+        <v>-1.53771363111019</v>
       </c>
       <c r="C479" t="n">
         <v>2</v>
@@ -5710,10 +5710,10 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>1.11769170587333</v>
+        <v>0.5824643176203778</v>
       </c>
       <c r="B480" t="n">
-        <v>-0.6962811036985547</v>
+        <v>-0.2168457400131759</v>
       </c>
       <c r="C480" t="n">
         <v>2</v>
@@ -5721,10 +5721,10 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>-0.9008813023217798</v>
+        <v>-3.476055749306803</v>
       </c>
       <c r="B481" t="n">
-        <v>0.3130128213719239</v>
+        <v>1.556347971682684</v>
       </c>
       <c r="C481" t="n">
         <v>0</v>
@@ -5732,10 +5732,10 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>-0.1859067707443478</v>
+        <v>-2.038536040102213</v>
       </c>
       <c r="B482" t="n">
-        <v>0.06833155032239009</v>
+        <v>1.126475879502513</v>
       </c>
       <c r="C482" t="n">
         <v>1</v>
@@ -5743,10 +5743,10 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>-0.8989679749062577</v>
+        <v>-3.472208834838526</v>
       </c>
       <c r="B483" t="n">
-        <v>1.637867473401258</v>
+        <v>3.883939448789193</v>
       </c>
       <c r="C483" t="n">
         <v>1</v>
@@ -5754,10 +5754,10 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>-0.6328476981178616</v>
+        <v>-2.937150415263381</v>
       </c>
       <c r="B484" t="n">
-        <v>-0.01184190194070011</v>
+        <v>0.9856219043951796</v>
       </c>
       <c r="C484" t="n">
         <v>0</v>
@@ -5765,10 +5765,10 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>-0.2613541614627966</v>
+        <v>-2.190229710821564</v>
       </c>
       <c r="B485" t="n">
-        <v>0.4206675073057757</v>
+        <v>1.745482779086948</v>
       </c>
       <c r="C485" t="n">
         <v>1</v>
@@ -5776,10 +5776,10 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>-0.9512178242010022</v>
+        <v>-3.57726179105845</v>
       </c>
       <c r="B486" t="n">
-        <v>0.3821595562852267</v>
+        <v>1.677829487113392</v>
       </c>
       <c r="C486" t="n">
         <v>0</v>
@@ -5787,10 +5787,10 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>-0.7465979515380198</v>
+        <v>-3.165855388652752</v>
       </c>
       <c r="B487" t="n">
-        <v>1.848848213190877</v>
+        <v>4.254604239085804</v>
       </c>
       <c r="C487" t="n">
         <v>1</v>
@@ -5798,10 +5798,10 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>1.115846815845596</v>
+        <v>0.5787550025901874</v>
       </c>
       <c r="B488" t="n">
-        <v>-0.7829418769626951</v>
+        <v>-0.369097065802087</v>
       </c>
       <c r="C488" t="n">
         <v>2</v>
@@ -5809,10 +5809,10 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>-1.37690601018999</v>
+        <v>-4.43314564468974</v>
       </c>
       <c r="B489" t="n">
-        <v>2.329149367012542</v>
+        <v>5.098428782681834</v>
       </c>
       <c r="C489" t="n">
         <v>1</v>
@@ -5820,10 +5820,10 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>-0.8168080130662848</v>
+        <v>-3.307018944519101</v>
       </c>
       <c r="B490" t="n">
-        <v>1.095396316297153</v>
+        <v>2.930890569112039</v>
       </c>
       <c r="C490" t="n">
         <v>1</v>
@@ -5831,10 +5831,10 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>-0.1409734870685001</v>
+        <v>-1.94819368798961</v>
       </c>
       <c r="B491" t="n">
-        <v>0.4914591020607937</v>
+        <v>1.86985409208356</v>
       </c>
       <c r="C491" t="n">
         <v>1</v>
@@ -5842,10 +5842,10 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>-1.040257346797778</v>
+        <v>-3.756283648450543</v>
       </c>
       <c r="B492" t="n">
-        <v>0.185207247055414</v>
+        <v>1.331810762978205</v>
       </c>
       <c r="C492" t="n">
         <v>0</v>
@@ -5853,10 +5853,10 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>1.059245449901778</v>
+        <v>0.4649529361968228</v>
       </c>
       <c r="B493" t="n">
-        <v>-1.003805821399296</v>
+        <v>-0.7571253177188692</v>
       </c>
       <c r="C493" t="n">
         <v>2</v>
@@ -5864,10 +5864,10 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>1.014313732226511</v>
+        <v>0.3746137326672818</v>
       </c>
       <c r="B494" t="n">
-        <v>-0.6119367331653002</v>
+        <v>-0.06866402234746333</v>
       </c>
       <c r="C494" t="n">
         <v>2</v>
@@ -5875,10 +5875,10 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>-1.007960419294199</v>
+        <v>-3.691347811182723</v>
       </c>
       <c r="B495" t="n">
-        <v>0.4815807193009452</v>
+        <v>1.852499101870709</v>
       </c>
       <c r="C495" t="n">
         <v>0</v>
@@ -5886,10 +5886,10 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>-0.5129017175417746</v>
+        <v>-2.695988382907377</v>
       </c>
       <c r="B496" t="n">
-        <v>0.9172635435028288</v>
+        <v>2.617935239926059</v>
       </c>
       <c r="C496" t="n">
         <v>1</v>
@@ -5897,10 +5897,10 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>-0.4179643213562236</v>
+        <v>-2.505108327563036</v>
       </c>
       <c r="B497" t="n">
-        <v>-0.5949325968610638</v>
+        <v>-0.0387900413211873</v>
       </c>
       <c r="C497" t="n">
         <v>0</v>
@@ -5908,10 +5908,10 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>1.744886271679257</v>
+        <v>1.843494620144365</v>
       </c>
       <c r="B498" t="n">
-        <v>-1.573820184749879</v>
+        <v>-1.758563907175346</v>
       </c>
       <c r="C498" t="n">
         <v>2</v>
@@ -5919,10 +5919,10 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>-0.3767324027893045</v>
+        <v>-2.422207898288311</v>
       </c>
       <c r="B499" t="n">
-        <v>0.6459417195028632</v>
+        <v>2.141259278432488</v>
       </c>
       <c r="C499" t="n">
         <v>1</v>
@@ -5930,10 +5930,10 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>-1.356464928307808</v>
+        <v>-4.392047036578104</v>
       </c>
       <c r="B500" t="n">
-        <v>1.126261415310775</v>
+        <v>2.985116397805107</v>
       </c>
       <c r="C500" t="n">
         <v>0</v>
@@ -5941,10 +5941,10 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>1.291973679532722</v>
+        <v>0.9328736833102345</v>
       </c>
       <c r="B501" t="n">
-        <v>-0.9701765987010046</v>
+        <v>-0.6980432953895789</v>
       </c>
       <c r="C501" t="n">
         <v>2</v>
